--- a/resultados/Venda de Drone/Com SPAD 3 Drones/vel05/field_16ha_100ha_10%_6m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 3 Drones/vel05/field_16ha_100ha_10%_6m_0_TSP/Planilha_Unificada.xlsx
@@ -5377,28 +5377,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1475.288845456964</v>
+        <v>1662.664220284848</v>
       </c>
       <c r="AB2" t="n">
-        <v>2018.555283504601</v>
+        <v>2274.930537762234</v>
       </c>
       <c r="AC2" t="n">
-        <v>1825.907200307055</v>
+        <v>2057.814360123269</v>
       </c>
       <c r="AD2" t="n">
-        <v>1475288.845456964</v>
+        <v>1662664.220284848</v>
       </c>
       <c r="AE2" t="n">
-        <v>2018555.283504601</v>
+        <v>2274930.537762234</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.844947118660105e-07</v>
+        <v>9.881173108166465e-07</v>
       </c>
       <c r="AG2" t="n">
-        <v>35</v>
+        <v>34.67013888888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>1825907.200307055</v>
+        <v>2057814.360123269</v>
       </c>
     </row>
     <row r="3">
@@ -5483,28 +5483,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1036.335641905964</v>
+        <v>1182.053079915524</v>
       </c>
       <c r="AB3" t="n">
-        <v>1417.960145157513</v>
+        <v>1617.33717244185</v>
       </c>
       <c r="AC3" t="n">
-        <v>1282.632019023242</v>
+        <v>1462.980782650977</v>
       </c>
       <c r="AD3" t="n">
-        <v>1036335.641905964</v>
+        <v>1182053.079915524</v>
       </c>
       <c r="AE3" t="n">
-        <v>1417960.145157513</v>
+        <v>1617337.17244185</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.546776496167024e-07</v>
+        <v>1.275820010915052e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>27</v>
+        <v>26.84895833333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>1282632.019023242</v>
+        <v>1462980.782650977</v>
       </c>
     </row>
     <row r="4">
@@ -5589,28 +5589,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>922.3487368035521</v>
+        <v>1057.651690608531</v>
       </c>
       <c r="AB4" t="n">
-        <v>1261.998232849051</v>
+        <v>1447.125703390064</v>
       </c>
       <c r="AC4" t="n">
-        <v>1141.554892731581</v>
+        <v>1309.014057312196</v>
       </c>
       <c r="AD4" t="n">
-        <v>922348.7368035521</v>
+        <v>1057651.690608531</v>
       </c>
       <c r="AE4" t="n">
-        <v>1261998.232849051</v>
+        <v>1447125.703390064</v>
       </c>
       <c r="AF4" t="n">
-        <v>8.226481220800154e-07</v>
+        <v>1.390727467050912e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>25</v>
+        <v>24.62673611111111</v>
       </c>
       <c r="AH4" t="n">
-        <v>1141554.892731581</v>
+        <v>1309014.057312196</v>
       </c>
     </row>
     <row r="5">
@@ -5695,28 +5695,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>868.5305017680254</v>
+        <v>993.5043122229954</v>
       </c>
       <c r="AB5" t="n">
-        <v>1188.361749380483</v>
+        <v>1359.35643030037</v>
       </c>
       <c r="AC5" t="n">
-        <v>1074.946171895799</v>
+        <v>1229.621360461234</v>
       </c>
       <c r="AD5" t="n">
-        <v>868530.5017680253</v>
+        <v>993504.3122229954</v>
       </c>
       <c r="AE5" t="n">
-        <v>1188361.749380483</v>
+        <v>1359356.43030037</v>
       </c>
       <c r="AF5" t="n">
-        <v>8.584306544585386e-07</v>
+        <v>1.451219613430127e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>24</v>
+        <v>23.60243055555556</v>
       </c>
       <c r="AH5" t="n">
-        <v>1074946.171895799</v>
+        <v>1229621.360461234</v>
       </c>
     </row>
     <row r="6">
@@ -5801,28 +5801,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>831.5270845131752</v>
+        <v>956.4155541135734</v>
       </c>
       <c r="AB6" t="n">
-        <v>1137.732041416842</v>
+        <v>1308.609955214531</v>
       </c>
       <c r="AC6" t="n">
-        <v>1029.148492200967</v>
+        <v>1183.718057734463</v>
       </c>
       <c r="AD6" t="n">
-        <v>831527.0845131752</v>
+        <v>956415.5541135734</v>
       </c>
       <c r="AE6" t="n">
-        <v>1137732.041416842</v>
+        <v>1308609.955214531</v>
       </c>
       <c r="AF6" t="n">
-        <v>8.811186006241775e-07</v>
+        <v>1.489574712112838e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>23</v>
+        <v>22.99479166666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>1029148.492200967</v>
+        <v>1183718.057734463</v>
       </c>
     </row>
     <row r="7">
@@ -5907,28 +5907,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>810.693684894231</v>
+        <v>935.5821544946292</v>
       </c>
       <c r="AB7" t="n">
-        <v>1109.226864953478</v>
+        <v>1280.104778751167</v>
       </c>
       <c r="AC7" t="n">
-        <v>1003.363809772</v>
+        <v>1157.933375305496</v>
       </c>
       <c r="AD7" t="n">
-        <v>810693.6848942309</v>
+        <v>935582.1544946292</v>
       </c>
       <c r="AE7" t="n">
-        <v>1109226.864953478</v>
+        <v>1280104.778751167</v>
       </c>
       <c r="AF7" t="n">
-        <v>8.979711696896006e-07</v>
+        <v>1.518064816278392e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>23</v>
+        <v>22.56076388888889</v>
       </c>
       <c r="AH7" t="n">
-        <v>1003363.809772</v>
+        <v>1157933.375305496</v>
       </c>
     </row>
     <row r="8">
@@ -6013,28 +6013,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>798.533931178363</v>
+        <v>913.0080060827316</v>
       </c>
       <c r="AB8" t="n">
-        <v>1092.589353468955</v>
+        <v>1249.217832992868</v>
       </c>
       <c r="AC8" t="n">
-        <v>988.3141590326654</v>
+        <v>1129.994236300269</v>
       </c>
       <c r="AD8" t="n">
-        <v>798533.931178363</v>
+        <v>913008.0060827316</v>
       </c>
       <c r="AE8" t="n">
-        <v>1092589.353468955</v>
+        <v>1249217.832992868</v>
       </c>
       <c r="AF8" t="n">
-        <v>9.076345541675578e-07</v>
+        <v>1.534401247198806e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>23</v>
+        <v>22.32638888888889</v>
       </c>
       <c r="AH8" t="n">
-        <v>988314.1590326654</v>
+        <v>1129994.236300269</v>
       </c>
     </row>
     <row r="9">
@@ -6119,28 +6119,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>785.8257267908989</v>
+        <v>900.2998016952677</v>
       </c>
       <c r="AB9" t="n">
-        <v>1075.201427579617</v>
+        <v>1231.829907103531</v>
       </c>
       <c r="AC9" t="n">
-        <v>972.5857123860992</v>
+        <v>1114.265789653702</v>
       </c>
       <c r="AD9" t="n">
-        <v>785825.7267908989</v>
+        <v>900299.8016952677</v>
       </c>
       <c r="AE9" t="n">
-        <v>1075201.427579617</v>
+        <v>1231829.907103531</v>
       </c>
       <c r="AF9" t="n">
-        <v>9.163175952926788e-07</v>
+        <v>1.549080359040337e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>23</v>
+        <v>22.109375</v>
       </c>
       <c r="AH9" t="n">
-        <v>972585.7123860992</v>
+        <v>1114265.789653702</v>
       </c>
     </row>
     <row r="10">
@@ -6225,28 +6225,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>765.1741274258836</v>
+        <v>889.9772561717103</v>
       </c>
       <c r="AB10" t="n">
-        <v>1046.94499824414</v>
+        <v>1217.706144919631</v>
       </c>
       <c r="AC10" t="n">
-        <v>947.0260370082523</v>
+        <v>1101.489979509809</v>
       </c>
       <c r="AD10" t="n">
-        <v>765174.1274258837</v>
+        <v>889977.2561717103</v>
       </c>
       <c r="AE10" t="n">
-        <v>1046944.99824414</v>
+        <v>1217706.144919632</v>
       </c>
       <c r="AF10" t="n">
-        <v>9.225497780357091e-07</v>
+        <v>1.559616173184662e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>22</v>
+        <v>21.96180555555556</v>
       </c>
       <c r="AH10" t="n">
-        <v>947026.0370082522</v>
+        <v>1101489.97950981</v>
       </c>
     </row>
     <row r="11">
@@ -6331,28 +6331,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>756.5720335340337</v>
+        <v>881.3751622798604</v>
       </c>
       <c r="AB11" t="n">
-        <v>1035.175233883712</v>
+        <v>1205.936380559204</v>
       </c>
       <c r="AC11" t="n">
-        <v>936.3795624394156</v>
+        <v>1090.843504940973</v>
       </c>
       <c r="AD11" t="n">
-        <v>756572.0335340337</v>
+        <v>881375.1622798605</v>
       </c>
       <c r="AE11" t="n">
-        <v>1035175.233883712</v>
+        <v>1205936.380559204</v>
       </c>
       <c r="AF11" t="n">
-        <v>9.283851551359249e-07</v>
+        <v>1.56948116770182e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>22</v>
+        <v>21.82291666666667</v>
       </c>
       <c r="AH11" t="n">
-        <v>936379.5624394156</v>
+        <v>1090843.504940973</v>
       </c>
     </row>
     <row r="12">
@@ -6437,28 +6437,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>746.6070154892406</v>
+        <v>861.1663417396296</v>
       </c>
       <c r="AB12" t="n">
-        <v>1021.540656569257</v>
+        <v>1178.28578074582</v>
       </c>
       <c r="AC12" t="n">
-        <v>924.0462500476027</v>
+        <v>1065.831839565918</v>
       </c>
       <c r="AD12" t="n">
-        <v>746607.0154892405</v>
+        <v>861166.3417396296</v>
       </c>
       <c r="AE12" t="n">
-        <v>1021540.656569257</v>
+        <v>1178285.78074582</v>
       </c>
       <c r="AF12" t="n">
-        <v>9.33310213408507e-07</v>
+        <v>1.577807223074302e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>22</v>
+        <v>21.71006944444444</v>
       </c>
       <c r="AH12" t="n">
-        <v>924046.2500476027</v>
+        <v>1065831.839565918</v>
       </c>
     </row>
     <row r="13">
@@ -6543,28 +6543,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>736.6533013905221</v>
+        <v>851.2126276409111</v>
       </c>
       <c r="AB13" t="n">
-        <v>1007.921545812517</v>
+        <v>1164.66666998908</v>
       </c>
       <c r="AC13" t="n">
-        <v>911.7269281069437</v>
+        <v>1053.512517625259</v>
       </c>
       <c r="AD13" t="n">
-        <v>736653.301390522</v>
+        <v>851212.6276409111</v>
       </c>
       <c r="AE13" t="n">
-        <v>1007921.545812517</v>
+        <v>1164666.66998908</v>
       </c>
       <c r="AF13" t="n">
-        <v>9.379551735802787e-07</v>
+        <v>1.58565975870996e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>22</v>
+        <v>21.60590277777778</v>
       </c>
       <c r="AH13" t="n">
-        <v>911726.9281069436</v>
+        <v>1053512.517625259</v>
       </c>
     </row>
     <row r="14">
@@ -6649,28 +6649,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>732.5385949337392</v>
+        <v>847.0979211841282</v>
       </c>
       <c r="AB14" t="n">
-        <v>1002.291622910309</v>
+        <v>1159.036747086872</v>
       </c>
       <c r="AC14" t="n">
-        <v>906.6343171448761</v>
+        <v>1048.419906663192</v>
       </c>
       <c r="AD14" t="n">
-        <v>732538.5949337392</v>
+        <v>847097.9211841282</v>
       </c>
       <c r="AE14" t="n">
-        <v>1002291.622910309</v>
+        <v>1159036.747086872</v>
       </c>
       <c r="AF14" t="n">
-        <v>9.397291282187443e-07</v>
+        <v>1.588658717043176e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>22</v>
+        <v>21.5625</v>
       </c>
       <c r="AH14" t="n">
-        <v>906634.3171448761</v>
+        <v>1048419.906663192</v>
       </c>
     </row>
     <row r="15">
@@ -6755,28 +6755,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>724.7807000420707</v>
+        <v>839.3400262924598</v>
       </c>
       <c r="AB15" t="n">
-        <v>991.6769288653608</v>
+        <v>1148.422053041924</v>
       </c>
       <c r="AC15" t="n">
-        <v>897.032674601761</v>
+        <v>1038.818264120076</v>
       </c>
       <c r="AD15" t="n">
-        <v>724780.7000420707</v>
+        <v>839340.0262924598</v>
       </c>
       <c r="AE15" t="n">
-        <v>991676.9288653608</v>
+        <v>1148422.053041924</v>
       </c>
       <c r="AF15" t="n">
-        <v>9.419465715168264e-07</v>
+        <v>1.592407414959697e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>22</v>
+        <v>21.51041666666667</v>
       </c>
       <c r="AH15" t="n">
-        <v>897032.6746017609</v>
+        <v>1038818.264120077</v>
       </c>
     </row>
     <row r="16">
@@ -6861,28 +6861,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>714.0272937826838</v>
+        <v>828.4160278324806</v>
       </c>
       <c r="AB16" t="n">
-        <v>976.9636440144652</v>
+        <v>1133.475356416181</v>
       </c>
       <c r="AC16" t="n">
-        <v>883.7236050068101</v>
+        <v>1025.298059242474</v>
       </c>
       <c r="AD16" t="n">
-        <v>714027.2937826838</v>
+        <v>828416.0278324806</v>
       </c>
       <c r="AE16" t="n">
-        <v>976963.6440144653</v>
+        <v>1133475.356416181</v>
       </c>
       <c r="AF16" t="n">
-        <v>9.471283863818178e-07</v>
+        <v>1.601167530090933e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>22</v>
+        <v>21.38888888888889</v>
       </c>
       <c r="AH16" t="n">
-        <v>883723.60500681</v>
+        <v>1025298.059242474</v>
       </c>
     </row>
     <row r="17">
@@ -6967,28 +6967,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>706.3721453777163</v>
+        <v>820.7608794275131</v>
       </c>
       <c r="AB17" t="n">
-        <v>966.4895322454763</v>
+        <v>1123.001244647192</v>
       </c>
       <c r="AC17" t="n">
-        <v>874.2491277645452</v>
+        <v>1015.82358200021</v>
       </c>
       <c r="AD17" t="n">
-        <v>706372.1453777163</v>
+        <v>820760.8794275131</v>
       </c>
       <c r="AE17" t="n">
-        <v>966489.5322454763</v>
+        <v>1123001.244647192</v>
       </c>
       <c r="AF17" t="n">
-        <v>9.48972365545486e-07</v>
+        <v>1.604284868358355e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>22</v>
+        <v>21.35416666666667</v>
       </c>
       <c r="AH17" t="n">
-        <v>874249.1277645451</v>
+        <v>1015823.582000209</v>
       </c>
     </row>
     <row r="18">
@@ -7073,28 +7073,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>703.9003594161176</v>
+        <v>818.2890934659144</v>
       </c>
       <c r="AB18" t="n">
-        <v>963.1075256453165</v>
+        <v>1119.619238047033</v>
       </c>
       <c r="AC18" t="n">
-        <v>871.1898951276287</v>
+        <v>1012.764349363293</v>
       </c>
       <c r="AD18" t="n">
-        <v>703900.3594161175</v>
+        <v>818289.0934659145</v>
       </c>
       <c r="AE18" t="n">
-        <v>963107.5256453165</v>
+        <v>1119619.238047033</v>
       </c>
       <c r="AF18" t="n">
-        <v>9.492057806294947e-07</v>
+        <v>1.604679468139041e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>22</v>
+        <v>21.34548611111111</v>
       </c>
       <c r="AH18" t="n">
-        <v>871189.8951276287</v>
+        <v>1012764.349363293</v>
       </c>
     </row>
     <row r="19">
@@ -7179,28 +7179,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>697.2702731359711</v>
+        <v>811.6590071857681</v>
       </c>
       <c r="AB19" t="n">
-        <v>954.0359490980571</v>
+        <v>1110.547661499773</v>
       </c>
       <c r="AC19" t="n">
-        <v>862.9840971140021</v>
+        <v>1004.558551349666</v>
       </c>
       <c r="AD19" t="n">
-        <v>697270.2731359712</v>
+        <v>811659.0071857681</v>
       </c>
       <c r="AE19" t="n">
-        <v>954035.9490980571</v>
+        <v>1110547.661499773</v>
       </c>
       <c r="AF19" t="n">
-        <v>9.512131503519688e-07</v>
+        <v>1.608073026252944e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>22</v>
+        <v>21.30208333333333</v>
       </c>
       <c r="AH19" t="n">
-        <v>862984.0971140021</v>
+        <v>1004558.551349666</v>
       </c>
     </row>
     <row r="20">
@@ -7285,28 +7285,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>698.5634912663214</v>
+        <v>812.9522253161182</v>
       </c>
       <c r="AB20" t="n">
-        <v>955.8053871967596</v>
+        <v>1112.317099598476</v>
       </c>
       <c r="AC20" t="n">
-        <v>864.5846625239866</v>
+        <v>1006.159116759651</v>
       </c>
       <c r="AD20" t="n">
-        <v>698563.4912663214</v>
+        <v>812952.2253161182</v>
       </c>
       <c r="AE20" t="n">
-        <v>955805.3871967596</v>
+        <v>1112317.099598476</v>
       </c>
       <c r="AF20" t="n">
-        <v>9.508630277259558e-07</v>
+        <v>1.607481126581914e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>22</v>
+        <v>21.31076388888889</v>
       </c>
       <c r="AH20" t="n">
-        <v>864584.6625239865</v>
+        <v>1006159.116759651</v>
       </c>
     </row>
     <row r="21">
@@ -7391,28 +7391,28 @@
         <v>10</v>
       </c>
       <c r="AA21" t="n">
-        <v>700.2466951827531</v>
+        <v>814.6354292325501</v>
       </c>
       <c r="AB21" t="n">
-        <v>958.1084210529375</v>
+        <v>1114.620133454653</v>
       </c>
       <c r="AC21" t="n">
-        <v>866.6678980612589</v>
+        <v>1008.242352296923</v>
       </c>
       <c r="AD21" t="n">
-        <v>700246.6951827531</v>
+        <v>814635.4292325501</v>
       </c>
       <c r="AE21" t="n">
-        <v>958108.4210529375</v>
+        <v>1114620.133454653</v>
       </c>
       <c r="AF21" t="n">
-        <v>9.508630277259558e-07</v>
+        <v>1.607481126581914e-06</v>
       </c>
       <c r="AG21" t="n">
-        <v>22</v>
+        <v>21.31076388888889</v>
       </c>
       <c r="AH21" t="n">
-        <v>866667.898061259</v>
+        <v>1008242.352296923</v>
       </c>
     </row>
   </sheetData>
@@ -7688,28 +7688,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1175.485716124359</v>
+        <v>1336.764209425529</v>
       </c>
       <c r="AB2" t="n">
-        <v>1608.351415571136</v>
+        <v>1829.019765210762</v>
       </c>
       <c r="AC2" t="n">
-        <v>1454.852613804415</v>
+        <v>1654.460685864409</v>
       </c>
       <c r="AD2" t="n">
-        <v>1175485.716124359</v>
+        <v>1336764.209425529</v>
       </c>
       <c r="AE2" t="n">
-        <v>1608351.415571136</v>
+        <v>1829019.765210762</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.756180591868515e-07</v>
+        <v>1.17002927939297e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>32</v>
+        <v>31.02430555555556</v>
       </c>
       <c r="AH2" t="n">
-        <v>1454852.613804415</v>
+        <v>1654460.685864409</v>
       </c>
     </row>
     <row r="3">
@@ -7794,28 +7794,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>879.0321090168309</v>
+        <v>1010.03889878642</v>
       </c>
       <c r="AB3" t="n">
-        <v>1202.730511716512</v>
+        <v>1381.979781090924</v>
       </c>
       <c r="AC3" t="n">
-        <v>1087.943599721162</v>
+        <v>1250.085570404411</v>
       </c>
       <c r="AD3" t="n">
-        <v>879032.1090168309</v>
+        <v>1010038.89878642</v>
       </c>
       <c r="AE3" t="n">
-        <v>1202730.511716512</v>
+        <v>1381979.781090925</v>
       </c>
       <c r="AF3" t="n">
-        <v>8.316766552027421e-07</v>
+        <v>1.440290152613727e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>26</v>
+        <v>25.19965277777778</v>
       </c>
       <c r="AH3" t="n">
-        <v>1087943.599721162</v>
+        <v>1250085.570404411</v>
       </c>
     </row>
     <row r="4">
@@ -7900,28 +7900,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>792.8596141652348</v>
+        <v>913.9464282915565</v>
       </c>
       <c r="AB4" t="n">
-        <v>1084.825502598394</v>
+        <v>1250.501823659248</v>
       </c>
       <c r="AC4" t="n">
-        <v>981.2912791925576</v>
+        <v>1131.155684699541</v>
       </c>
       <c r="AD4" t="n">
-        <v>792859.6141652348</v>
+        <v>913946.4282915564</v>
       </c>
       <c r="AE4" t="n">
-        <v>1084825.502598393</v>
+        <v>1250501.823659248</v>
       </c>
       <c r="AF4" t="n">
-        <v>8.913667138985926e-07</v>
+        <v>1.543660859499339e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>24</v>
+        <v>23.515625</v>
       </c>
       <c r="AH4" t="n">
-        <v>981291.2791925576</v>
+        <v>1131155.684699541</v>
       </c>
     </row>
     <row r="5">
@@ -8006,28 +8006,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>750.9850172637724</v>
+        <v>871.9864905355223</v>
       </c>
       <c r="AB5" t="n">
-        <v>1027.530831740979</v>
+        <v>1193.090385679636</v>
       </c>
       <c r="AC5" t="n">
-        <v>929.464731308199</v>
+        <v>1079.223513783244</v>
       </c>
       <c r="AD5" t="n">
-        <v>750985.0172637724</v>
+        <v>871986.4905355223</v>
       </c>
       <c r="AE5" t="n">
-        <v>1027530.831740979</v>
+        <v>1193090.385679636</v>
       </c>
       <c r="AF5" t="n">
-        <v>9.212841826381389e-07</v>
+        <v>1.595471662829142e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>23</v>
+        <v>22.75173611111111</v>
       </c>
       <c r="AH5" t="n">
-        <v>929464.731308199</v>
+        <v>1079223.513783244</v>
       </c>
     </row>
     <row r="6">
@@ -8112,28 +8112,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>729.4158107619112</v>
+        <v>840.3268056983521</v>
       </c>
       <c r="AB6" t="n">
-        <v>998.0188918388993</v>
+        <v>1149.7722081587</v>
       </c>
       <c r="AC6" t="n">
-        <v>902.7693695301065</v>
+        <v>1040.039562327463</v>
       </c>
       <c r="AD6" t="n">
-        <v>729415.8107619112</v>
+        <v>840326.8056983522</v>
       </c>
       <c r="AE6" t="n">
-        <v>998018.8918388993</v>
+        <v>1149772.2081587</v>
       </c>
       <c r="AF6" t="n">
-        <v>9.402633032428876e-07</v>
+        <v>1.628339533222383e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>23</v>
+        <v>22.29166666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>902769.3695301064</v>
+        <v>1040039.562327463</v>
       </c>
     </row>
     <row r="7">
@@ -8218,28 +8218,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>704.0257387069678</v>
+        <v>824.941871124146</v>
       </c>
       <c r="AB7" t="n">
-        <v>963.2790751224017</v>
+        <v>1128.721861938861</v>
       </c>
       <c r="AC7" t="n">
-        <v>871.345072163392</v>
+        <v>1020.998231606498</v>
       </c>
       <c r="AD7" t="n">
-        <v>704025.7387069678</v>
+        <v>824941.871124146</v>
       </c>
       <c r="AE7" t="n">
-        <v>963279.0751224017</v>
+        <v>1128721.861938861</v>
       </c>
       <c r="AF7" t="n">
-        <v>9.536404442289318e-07</v>
+        <v>1.651505945687848e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>22</v>
+        <v>21.97916666666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>871345.0721633921</v>
+        <v>1020998.231606498</v>
       </c>
     </row>
     <row r="8">
@@ -8324,28 +8324,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>689.9385493050181</v>
+        <v>800.9347955874797</v>
       </c>
       <c r="AB8" t="n">
-        <v>944.0043610997199</v>
+        <v>1095.87432207217</v>
       </c>
       <c r="AC8" t="n">
-        <v>853.9099097948041</v>
+        <v>991.2856148428724</v>
       </c>
       <c r="AD8" t="n">
-        <v>689938.5493050182</v>
+        <v>800934.7955874797</v>
       </c>
       <c r="AE8" t="n">
-        <v>944004.3610997199</v>
+        <v>1095874.32207217</v>
       </c>
       <c r="AF8" t="n">
-        <v>9.638543984475177e-07</v>
+        <v>1.669194379754439e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>22</v>
+        <v>21.74479166666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>853909.9097948041</v>
+        <v>991285.6148428724</v>
       </c>
     </row>
     <row r="9">
@@ -8430,28 +8430,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>677.0466560447786</v>
+        <v>788.0429023272402</v>
       </c>
       <c r="AB9" t="n">
-        <v>926.3651039908699</v>
+        <v>1078.23506496332</v>
       </c>
       <c r="AC9" t="n">
-        <v>837.9541186275699</v>
+        <v>975.3298236756383</v>
       </c>
       <c r="AD9" t="n">
-        <v>677046.6560447786</v>
+        <v>788042.9023272402</v>
       </c>
       <c r="AE9" t="n">
-        <v>926365.1039908699</v>
+        <v>1078235.06496332</v>
       </c>
       <c r="AF9" t="n">
-        <v>9.721607820200794e-07</v>
+        <v>1.683579300130107e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>22</v>
+        <v>21.5625</v>
       </c>
       <c r="AH9" t="n">
-        <v>837954.1186275699</v>
+        <v>975329.8236756383</v>
       </c>
     </row>
     <row r="10">
@@ -8536,28 +8536,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>668.1324912489412</v>
+        <v>778.9581453308105</v>
       </c>
       <c r="AB10" t="n">
-        <v>914.1683504520096</v>
+        <v>1065.804899649613</v>
       </c>
       <c r="AC10" t="n">
-        <v>826.9214061282073</v>
+        <v>964.0859758936245</v>
       </c>
       <c r="AD10" t="n">
-        <v>668132.4912489412</v>
+        <v>778958.1453308105</v>
       </c>
       <c r="AE10" t="n">
-        <v>914168.3504520096</v>
+        <v>1065804.899649613</v>
       </c>
       <c r="AF10" t="n">
-        <v>9.768693424754562e-07</v>
+        <v>1.691733542784918e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>22</v>
+        <v>21.45833333333333</v>
       </c>
       <c r="AH10" t="n">
-        <v>826921.4061282073</v>
+        <v>964085.9758936246</v>
       </c>
     </row>
     <row r="11">
@@ -8642,28 +8642,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>654.21806402349</v>
+        <v>765.0437181053593</v>
       </c>
       <c r="AB11" t="n">
-        <v>895.1300172609423</v>
+        <v>1046.766566458545</v>
       </c>
       <c r="AC11" t="n">
-        <v>809.700064736427</v>
+        <v>946.8646345018443</v>
       </c>
       <c r="AD11" t="n">
-        <v>654218.0640234899</v>
+        <v>765043.7181053592</v>
       </c>
       <c r="AE11" t="n">
-        <v>895130.0172609423</v>
+        <v>1046766.566458545</v>
       </c>
       <c r="AF11" t="n">
-        <v>9.819159534250647e-07</v>
+        <v>1.700473218245716e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>22</v>
+        <v>21.34548611111111</v>
       </c>
       <c r="AH11" t="n">
-        <v>809700.0647364269</v>
+        <v>946864.6345018443</v>
       </c>
     </row>
     <row r="12">
@@ -8748,28 +8748,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>647.8567403173297</v>
+        <v>758.682394399199</v>
       </c>
       <c r="AB12" t="n">
-        <v>886.4261735243784</v>
+        <v>1038.062722721982</v>
       </c>
       <c r="AC12" t="n">
-        <v>801.8269036301594</v>
+        <v>938.9914733955768</v>
       </c>
       <c r="AD12" t="n">
-        <v>647856.7403173296</v>
+        <v>758682.3943991989</v>
       </c>
       <c r="AE12" t="n">
-        <v>886426.1735243784</v>
+        <v>1038062.722721982</v>
       </c>
       <c r="AF12" t="n">
-        <v>9.839442563904579e-07</v>
+        <v>1.703985815081635e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>22</v>
+        <v>21.30208333333333</v>
       </c>
       <c r="AH12" t="n">
-        <v>801826.9036301594</v>
+        <v>938991.4733955768</v>
       </c>
     </row>
     <row r="13">
@@ -8854,28 +8854,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>639.4877745353614</v>
+        <v>750.3134286172306</v>
       </c>
       <c r="AB13" t="n">
-        <v>874.9753853287767</v>
+        <v>1026.61193452638</v>
       </c>
       <c r="AC13" t="n">
-        <v>791.4689625886639</v>
+        <v>928.6335323540811</v>
       </c>
       <c r="AD13" t="n">
-        <v>639487.7745353613</v>
+        <v>750313.4286172305</v>
       </c>
       <c r="AE13" t="n">
-        <v>874975.3853287767</v>
+        <v>1026611.93452638</v>
       </c>
       <c r="AF13" t="n">
-        <v>9.885079380625921e-07</v>
+        <v>1.711889157962453e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>22</v>
+        <v>21.20659722222222</v>
       </c>
       <c r="AH13" t="n">
-        <v>791468.9625886639</v>
+        <v>928633.5323540812</v>
       </c>
     </row>
     <row r="14">
@@ -8960,28 +8960,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>632.5656098488537</v>
+        <v>743.391263930723</v>
       </c>
       <c r="AB14" t="n">
-        <v>865.5041742203439</v>
+        <v>1017.140723417947</v>
       </c>
       <c r="AC14" t="n">
-        <v>782.9016705754915</v>
+        <v>920.066240340909</v>
       </c>
       <c r="AD14" t="n">
-        <v>632565.6098488537</v>
+        <v>743391.263930723</v>
       </c>
       <c r="AE14" t="n">
-        <v>865504.1742203439</v>
+        <v>1017140.723417947</v>
       </c>
       <c r="AF14" t="n">
-        <v>9.906569733473534e-07</v>
+        <v>1.715610837943366e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>22</v>
+        <v>21.15451388888889</v>
       </c>
       <c r="AH14" t="n">
-        <v>782901.6705754915</v>
+        <v>920066.240340909</v>
       </c>
     </row>
     <row r="15">
@@ -9066,28 +9066,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>635.6482234914884</v>
+        <v>746.4738775733576</v>
       </c>
       <c r="AB15" t="n">
-        <v>869.7219422015127</v>
+        <v>1021.358491399116</v>
       </c>
       <c r="AC15" t="n">
-        <v>786.7169007002119</v>
+        <v>923.8814704656293</v>
       </c>
       <c r="AD15" t="n">
-        <v>635648.2234914884</v>
+        <v>746473.8775733577</v>
       </c>
       <c r="AE15" t="n">
-        <v>869721.9422015126</v>
+        <v>1021358.491399116</v>
       </c>
       <c r="AF15" t="n">
-        <v>9.901498976060054e-07</v>
+        <v>1.714732688734387e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>22</v>
+        <v>21.171875</v>
       </c>
       <c r="AH15" t="n">
-        <v>786716.9007002119</v>
+        <v>923881.4704656292</v>
       </c>
     </row>
   </sheetData>
@@ -9363,28 +9363,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>630.6358143095932</v>
+        <v>748.8796342197292</v>
       </c>
       <c r="AB2" t="n">
-        <v>862.8637428269573</v>
+        <v>1024.650153777174</v>
       </c>
       <c r="AC2" t="n">
-        <v>780.5132382484209</v>
+        <v>926.8589812062029</v>
       </c>
       <c r="AD2" t="n">
-        <v>630635.8143095932</v>
+        <v>748879.6342197291</v>
       </c>
       <c r="AE2" t="n">
-        <v>862863.7428269573</v>
+        <v>1024650.153777174</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.55970852220078e-07</v>
+        <v>1.80890256749997e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>25</v>
+        <v>24.46180555555556</v>
       </c>
       <c r="AH2" t="n">
-        <v>780513.2382484209</v>
+        <v>926858.9812062029</v>
       </c>
     </row>
     <row r="3">
@@ -9469,28 +9469,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>538.5536927939816</v>
+        <v>638.7374631878298</v>
       </c>
       <c r="AB3" t="n">
-        <v>736.8729217928043</v>
+        <v>873.9487762416838</v>
       </c>
       <c r="AC3" t="n">
-        <v>666.5468043445395</v>
+        <v>790.540331631988</v>
       </c>
       <c r="AD3" t="n">
-        <v>538553.6927939815</v>
+        <v>638737.4631878298</v>
       </c>
       <c r="AE3" t="n">
-        <v>736872.9217928043</v>
+        <v>873948.7762416839</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.058088369974139e-06</v>
+        <v>2.00213088573066e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>23</v>
+        <v>22.10069444444444</v>
       </c>
       <c r="AH3" t="n">
-        <v>666546.8043445395</v>
+        <v>790540.3316319881</v>
       </c>
     </row>
     <row r="4">
@@ -9575,28 +9575,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>496.5802635825443</v>
+        <v>596.6786931218212</v>
       </c>
       <c r="AB4" t="n">
-        <v>679.4430242087082</v>
+        <v>816.4021115353902</v>
       </c>
       <c r="AC4" t="n">
-        <v>614.597935582502</v>
+        <v>738.4858398380119</v>
       </c>
       <c r="AD4" t="n">
-        <v>496580.2635825443</v>
+        <v>596678.6931218212</v>
       </c>
       <c r="AE4" t="n">
-        <v>679443.0242087082</v>
+        <v>816402.1115353901</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.094732123046837e-06</v>
+        <v>2.071468751903151e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>22</v>
+        <v>21.36284722222222</v>
       </c>
       <c r="AH4" t="n">
-        <v>614597.935582502</v>
+        <v>738485.8398380119</v>
       </c>
     </row>
     <row r="5">
@@ -9681,28 +9681,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>482.4135499818651</v>
+        <v>582.5119795211418</v>
       </c>
       <c r="AB5" t="n">
-        <v>660.0595016689645</v>
+        <v>797.0185889956465</v>
       </c>
       <c r="AC5" t="n">
-        <v>597.0643492290068</v>
+        <v>720.9522534845165</v>
       </c>
       <c r="AD5" t="n">
-        <v>482413.5499818651</v>
+        <v>582511.9795211419</v>
       </c>
       <c r="AE5" t="n">
-        <v>660059.5016689645</v>
+        <v>797018.5889956465</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.107045501836706e-06</v>
+        <v>2.094768314286113e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>22</v>
+        <v>21.12847222222222</v>
       </c>
       <c r="AH5" t="n">
-        <v>597064.3492290068</v>
+        <v>720952.2534845165</v>
       </c>
     </row>
     <row r="6">
@@ -9787,28 +9787,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>484.4781730032925</v>
+        <v>584.5766025425694</v>
       </c>
       <c r="AB6" t="n">
-        <v>662.8844099716209</v>
+        <v>799.8434972983029</v>
       </c>
       <c r="AC6" t="n">
-        <v>599.6196522480413</v>
+        <v>723.5075565035511</v>
       </c>
       <c r="AD6" t="n">
-        <v>484478.1730032925</v>
+        <v>584576.6025425694</v>
       </c>
       <c r="AE6" t="n">
-        <v>662884.4099716209</v>
+        <v>799843.4972983028</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.106856894284126e-06</v>
+        <v>2.094411428210225e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>22</v>
+        <v>21.12847222222222</v>
       </c>
       <c r="AH6" t="n">
-        <v>599619.6522480414</v>
+        <v>723507.5565035511</v>
       </c>
     </row>
   </sheetData>
@@ -10084,28 +10084,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>797.1055689684823</v>
+        <v>929.8024668189329</v>
       </c>
       <c r="AB2" t="n">
-        <v>1090.635005278502</v>
+        <v>1272.196755091455</v>
       </c>
       <c r="AC2" t="n">
-        <v>986.5463310905651</v>
+        <v>1150.780082324886</v>
       </c>
       <c r="AD2" t="n">
-        <v>797105.5689684823</v>
+        <v>929802.4668189329</v>
       </c>
       <c r="AE2" t="n">
-        <v>1090635.005278502</v>
+        <v>1272196.755091455</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.461621669260914e-07</v>
+        <v>1.54152370305683e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>27</v>
+        <v>26.44097222222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>986546.3310905651</v>
+        <v>1150780.082324886</v>
       </c>
     </row>
     <row r="3">
@@ -10190,28 +10190,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>655.2549708367592</v>
+        <v>759.7179989140074</v>
       </c>
       <c r="AB3" t="n">
-        <v>896.5487589079572</v>
+        <v>1039.479682506789</v>
       </c>
       <c r="AC3" t="n">
-        <v>810.9834036718671</v>
+        <v>940.2732005272379</v>
       </c>
       <c r="AD3" t="n">
-        <v>655254.9708367592</v>
+        <v>759717.9989140073</v>
       </c>
       <c r="AE3" t="n">
-        <v>896548.7589079572</v>
+        <v>1039479.682506789</v>
       </c>
       <c r="AF3" t="n">
-        <v>9.694507295241813e-07</v>
+        <v>1.766128688944082e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>24</v>
+        <v>23.08159722222222</v>
       </c>
       <c r="AH3" t="n">
-        <v>810983.4036718671</v>
+        <v>940273.200527238</v>
       </c>
     </row>
     <row r="4">
@@ -10296,28 +10296,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>607.3885988764548</v>
+        <v>711.7662860991312</v>
       </c>
       <c r="AB4" t="n">
-        <v>831.055877076575</v>
+        <v>973.8700335532096</v>
       </c>
       <c r="AC4" t="n">
-        <v>751.7410705626353</v>
+        <v>880.9252443860671</v>
       </c>
       <c r="AD4" t="n">
-        <v>607388.5988764548</v>
+        <v>711766.2860991312</v>
       </c>
       <c r="AE4" t="n">
-        <v>831055.8770765751</v>
+        <v>973870.0335532096</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.012935530925598e-06</v>
+        <v>1.845348553295282e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>23</v>
+        <v>22.09201388888889</v>
       </c>
       <c r="AH4" t="n">
-        <v>751741.0705626353</v>
+        <v>880925.2443860671</v>
       </c>
     </row>
     <row r="5">
@@ -10402,28 +10402,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>573.9530051892809</v>
+        <v>678.4159437579781</v>
       </c>
       <c r="AB5" t="n">
-        <v>785.307822719496</v>
+        <v>928.2386238487799</v>
       </c>
       <c r="AC5" t="n">
-        <v>710.3591463055982</v>
+        <v>839.6488323797423</v>
       </c>
       <c r="AD5" t="n">
-        <v>573953.005189281</v>
+        <v>678415.943757978</v>
       </c>
       <c r="AE5" t="n">
-        <v>785307.822719496</v>
+        <v>928238.6238487798</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.037010696609608e-06</v>
+        <v>1.889208276652735e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>22</v>
+        <v>21.57986111111111</v>
       </c>
       <c r="AH5" t="n">
-        <v>710359.1463055982</v>
+        <v>839648.8323797423</v>
       </c>
     </row>
     <row r="6">
@@ -10508,28 +10508,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>555.1466285543768</v>
+        <v>659.4389749224817</v>
       </c>
       <c r="AB6" t="n">
-        <v>759.576108528839</v>
+        <v>902.2734978832756</v>
       </c>
       <c r="AC6" t="n">
-        <v>687.0832308026096</v>
+        <v>816.1617815941028</v>
       </c>
       <c r="AD6" t="n">
-        <v>555146.6285543768</v>
+        <v>659438.9749224817</v>
       </c>
       <c r="AE6" t="n">
-        <v>759576.108528839</v>
+        <v>902273.4978832756</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.051651696725793e-06</v>
+        <v>1.915880999208444e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>22</v>
+        <v>21.27604166666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>687083.2308026096</v>
+        <v>816161.7815941027</v>
       </c>
     </row>
     <row r="7">
@@ -10614,28 +10614,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>539.1195568818122</v>
+        <v>634.0859541800878</v>
       </c>
       <c r="AB7" t="n">
-        <v>737.647162001936</v>
+        <v>867.5843764071967</v>
       </c>
       <c r="AC7" t="n">
-        <v>667.2471521547646</v>
+        <v>784.7833411852132</v>
       </c>
       <c r="AD7" t="n">
-        <v>539119.5568818122</v>
+        <v>634085.9541800878</v>
       </c>
       <c r="AE7" t="n">
-        <v>737647.162001936</v>
+        <v>867584.3764071967</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.061008533067651e-06</v>
+        <v>1.932927122954435e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>22</v>
+        <v>21.08506944444444</v>
       </c>
       <c r="AH7" t="n">
-        <v>667247.1521547646</v>
+        <v>784783.3411852132</v>
       </c>
     </row>
     <row r="8">
@@ -10720,28 +10720,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>538.3954561764643</v>
+        <v>633.3618534747399</v>
       </c>
       <c r="AB8" t="n">
-        <v>736.6564154718104</v>
+        <v>866.5936298770712</v>
       </c>
       <c r="AC8" t="n">
-        <v>666.3509610829527</v>
+        <v>783.8871501134013</v>
       </c>
       <c r="AD8" t="n">
-        <v>538395.4561764643</v>
+        <v>633361.8534747398</v>
       </c>
       <c r="AE8" t="n">
-        <v>736656.4154718104</v>
+        <v>866593.6298770711</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.062116918639827e-06</v>
+        <v>1.934946360753546e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>22</v>
+        <v>21.06770833333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>666350.9610829527</v>
+        <v>783887.1501134012</v>
       </c>
     </row>
     <row r="9">
@@ -10826,28 +10826,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>540.4637186617645</v>
+        <v>635.4301159600399</v>
       </c>
       <c r="AB9" t="n">
-        <v>739.4863034494989</v>
+        <v>869.4235178547598</v>
       </c>
       <c r="AC9" t="n">
-        <v>668.9107685238234</v>
+        <v>786.446957554272</v>
       </c>
       <c r="AD9" t="n">
-        <v>540463.7186617644</v>
+        <v>635430.1159600399</v>
       </c>
       <c r="AE9" t="n">
-        <v>739486.303449499</v>
+        <v>869423.5178547598</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.062091142231172e-06</v>
+        <v>1.934899401734963e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>22</v>
+        <v>21.06770833333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>668910.7685238235</v>
+        <v>786446.957554272</v>
       </c>
     </row>
   </sheetData>
@@ -11123,28 +11123,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>520.231169438593</v>
+        <v>625.6923768428089</v>
       </c>
       <c r="AB2" t="n">
-        <v>711.8032370052808</v>
+        <v>856.0999135958339</v>
       </c>
       <c r="AC2" t="n">
-        <v>643.8697350876137</v>
+        <v>774.3949393860219</v>
       </c>
       <c r="AD2" t="n">
-        <v>520231.1694385931</v>
+        <v>625692.3768428089</v>
       </c>
       <c r="AE2" t="n">
-        <v>711803.2370052808</v>
+        <v>856099.9135958338</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.047256178782303e-06</v>
+        <v>2.05228468398274e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>24</v>
+        <v>23.19444444444444</v>
       </c>
       <c r="AH2" t="n">
-        <v>643869.7350876137</v>
+        <v>774394.9393860218</v>
       </c>
     </row>
     <row r="3">
@@ -11229,28 +11229,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>446.2562887679862</v>
+        <v>542.9148462051345</v>
       </c>
       <c r="AB3" t="n">
-        <v>610.5875417303505</v>
+        <v>742.8400442904534</v>
       </c>
       <c r="AC3" t="n">
-        <v>552.3139237126021</v>
+        <v>671.944433045922</v>
       </c>
       <c r="AD3" t="n">
-        <v>446256.2887679862</v>
+        <v>542914.8462051345</v>
       </c>
       <c r="AE3" t="n">
-        <v>610587.5417303505</v>
+        <v>742840.0442904534</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.132046319379523e-06</v>
+        <v>2.218446040130338e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>22</v>
+        <v>21.45833333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>552313.9237126021</v>
+        <v>671944.433045922</v>
       </c>
     </row>
     <row r="4">
@@ -11335,28 +11335,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>440.5120808677638</v>
+        <v>537.170638304912</v>
       </c>
       <c r="AB4" t="n">
-        <v>602.7280630646989</v>
+        <v>734.9805656248017</v>
       </c>
       <c r="AC4" t="n">
-        <v>545.2045426599526</v>
+        <v>664.8350519932725</v>
       </c>
       <c r="AD4" t="n">
-        <v>440512.0808677638</v>
+        <v>537170.638304912</v>
       </c>
       <c r="AE4" t="n">
-        <v>602728.0630646988</v>
+        <v>734980.5656248017</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.140329448625984e-06</v>
+        <v>2.234678304625284e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>22</v>
+        <v>21.30208333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>545204.5426599527</v>
+        <v>664835.0519932725</v>
       </c>
     </row>
   </sheetData>
@@ -11632,28 +11632,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1239.869635052255</v>
+        <v>1412.685963673385</v>
       </c>
       <c r="AB2" t="n">
-        <v>1696.44433386632</v>
+        <v>1932.899258804085</v>
       </c>
       <c r="AC2" t="n">
-        <v>1534.538067616694</v>
+        <v>1748.426066384971</v>
       </c>
       <c r="AD2" t="n">
-        <v>1239869.635052255</v>
+        <v>1412685.963673386</v>
       </c>
       <c r="AE2" t="n">
-        <v>1696444.33386632</v>
+        <v>1932899.258804085</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.510036232475214e-07</v>
+        <v>1.120039499674611e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>32</v>
+        <v>31.90972222222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>1534538.067616694</v>
+        <v>1748426.066384971</v>
       </c>
     </row>
     <row r="3">
@@ -11738,28 +11738,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>914.8578988589303</v>
+        <v>1047.142083229139</v>
       </c>
       <c r="AB3" t="n">
-        <v>1251.748937900773</v>
+        <v>1432.745994922425</v>
       </c>
       <c r="AC3" t="n">
-        <v>1132.283776108191</v>
+        <v>1296.006728038662</v>
       </c>
       <c r="AD3" t="n">
-        <v>914857.8988589303</v>
+        <v>1047142.083229139</v>
       </c>
       <c r="AE3" t="n">
-        <v>1251748.937900773</v>
+        <v>1432745.994922425</v>
       </c>
       <c r="AF3" t="n">
-        <v>8.114991682253241e-07</v>
+        <v>1.396169068662577e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>26</v>
+        <v>25.59895833333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>1132283.776108191</v>
+        <v>1296006.728038662</v>
       </c>
     </row>
     <row r="4">
@@ -11844,28 +11844,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>822.8049915289262</v>
+        <v>954.918494189992</v>
       </c>
       <c r="AB4" t="n">
-        <v>1125.798089004207</v>
+        <v>1306.561611781464</v>
       </c>
       <c r="AC4" t="n">
-        <v>1018.353499457186</v>
+        <v>1181.86520532378</v>
       </c>
       <c r="AD4" t="n">
-        <v>822804.9915289262</v>
+        <v>954918.494189992</v>
       </c>
       <c r="AE4" t="n">
-        <v>1125798.089004207</v>
+        <v>1306561.611781464</v>
       </c>
       <c r="AF4" t="n">
-        <v>8.730459911987712e-07</v>
+        <v>1.502059220956755e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>24</v>
+        <v>23.79340277777778</v>
       </c>
       <c r="AH4" t="n">
-        <v>1018353.499457186</v>
+        <v>1181865.20532378</v>
       </c>
     </row>
     <row r="5">
@@ -11950,28 +11950,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>778.7157232501239</v>
+        <v>900.7388602757454</v>
       </c>
       <c r="AB5" t="n">
-        <v>1065.47320706391</v>
+        <v>1232.430646423238</v>
       </c>
       <c r="AC5" t="n">
-        <v>963.7859395827678</v>
+        <v>1114.809195255879</v>
       </c>
       <c r="AD5" t="n">
-        <v>778715.7232501239</v>
+        <v>900738.8602757454</v>
       </c>
       <c r="AE5" t="n">
-        <v>1065473.20706391</v>
+        <v>1232430.646423238</v>
       </c>
       <c r="AF5" t="n">
-        <v>9.045612189810534e-07</v>
+        <v>1.556280578099613e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>23</v>
+        <v>22.96006944444444</v>
       </c>
       <c r="AH5" t="n">
-        <v>963785.9395827678</v>
+        <v>1114809.195255879</v>
       </c>
     </row>
     <row r="6">
@@ -12056,28 +12056,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>754.4883756697744</v>
+        <v>866.335895713931</v>
       </c>
       <c r="AB6" t="n">
-        <v>1032.324281269336</v>
+        <v>1185.358992558085</v>
       </c>
       <c r="AC6" t="n">
-        <v>933.8007007412181</v>
+        <v>1072.229993970135</v>
       </c>
       <c r="AD6" t="n">
-        <v>754488.3756697745</v>
+        <v>866335.8957139309</v>
       </c>
       <c r="AE6" t="n">
-        <v>1032324.281269336</v>
+        <v>1185358.992558084</v>
       </c>
       <c r="AF6" t="n">
-        <v>9.258345959730418e-07</v>
+        <v>1.59288102342991e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>23</v>
+        <v>22.43923611111111</v>
       </c>
       <c r="AH6" t="n">
-        <v>933800.7007412181</v>
+        <v>1072229.993970135</v>
       </c>
     </row>
     <row r="7">
@@ -12162,28 +12162,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>737.3063104720004</v>
+        <v>849.1538305161567</v>
       </c>
       <c r="AB7" t="n">
-        <v>1008.815021646523</v>
+        <v>1161.849732935272</v>
       </c>
       <c r="AC7" t="n">
-        <v>912.5351318613533</v>
+        <v>1050.96442509027</v>
       </c>
       <c r="AD7" t="n">
-        <v>737306.3104720004</v>
+        <v>849153.8305161567</v>
       </c>
       <c r="AE7" t="n">
-        <v>1008815.021646523</v>
+        <v>1161849.732935272</v>
       </c>
       <c r="AF7" t="n">
-        <v>9.398094577990501e-07</v>
+        <v>1.616924510576022e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>23</v>
+        <v>22.10069444444444</v>
       </c>
       <c r="AH7" t="n">
-        <v>912535.1318613533</v>
+        <v>1050964.42509027</v>
       </c>
     </row>
     <row r="8">
@@ -12268,28 +12268,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>713.9060104664767</v>
+        <v>835.8438066375265</v>
       </c>
       <c r="AB8" t="n">
-        <v>976.7976988305885</v>
+        <v>1143.638371067719</v>
       </c>
       <c r="AC8" t="n">
-        <v>883.573497398377</v>
+        <v>1034.49113003955</v>
       </c>
       <c r="AD8" t="n">
-        <v>713906.0104664767</v>
+        <v>835843.8066375265</v>
       </c>
       <c r="AE8" t="n">
-        <v>976797.6988305885</v>
+        <v>1143638.371067719</v>
       </c>
       <c r="AF8" t="n">
-        <v>9.497402243363675e-07</v>
+        <v>1.634010207777454e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>22</v>
+        <v>21.875</v>
       </c>
       <c r="AH8" t="n">
-        <v>883573.4973983769</v>
+        <v>1034491.13003955</v>
       </c>
     </row>
     <row r="9">
@@ -12374,28 +12374,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>703.5858340298618</v>
+        <v>815.5186054200386</v>
       </c>
       <c r="AB9" t="n">
-        <v>962.6771781359605</v>
+        <v>1115.828534077359</v>
       </c>
       <c r="AC9" t="n">
-        <v>870.8006193805691</v>
+        <v>1009.335424860198</v>
       </c>
       <c r="AD9" t="n">
-        <v>703585.8340298617</v>
+        <v>815518.6054200386</v>
       </c>
       <c r="AE9" t="n">
-        <v>962677.1781359605</v>
+        <v>1115828.534077359</v>
       </c>
       <c r="AF9" t="n">
-        <v>9.557704729325215e-07</v>
+        <v>1.64438513716242e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>22</v>
+        <v>21.73611111111111</v>
       </c>
       <c r="AH9" t="n">
-        <v>870800.6193805691</v>
+        <v>1009335.424860198</v>
       </c>
     </row>
     <row r="10">
@@ -12480,28 +12480,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>692.6629346100581</v>
+        <v>804.5957060002349</v>
       </c>
       <c r="AB10" t="n">
-        <v>947.7319852654723</v>
+        <v>1100.883341206871</v>
       </c>
       <c r="AC10" t="n">
-        <v>857.2817747419305</v>
+        <v>995.8165802215599</v>
       </c>
       <c r="AD10" t="n">
-        <v>692662.9346100581</v>
+        <v>804595.7060002349</v>
       </c>
       <c r="AE10" t="n">
-        <v>947731.9852654723</v>
+        <v>1100883.341206871</v>
       </c>
       <c r="AF10" t="n">
-        <v>9.622314535712582e-07</v>
+        <v>1.655501132932027e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>22</v>
+        <v>21.58854166666667</v>
       </c>
       <c r="AH10" t="n">
-        <v>857281.7747419304</v>
+        <v>995816.5802215599</v>
       </c>
     </row>
     <row r="11">
@@ -12586,28 +12586,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>682.6379708093742</v>
+        <v>794.4001499989589</v>
       </c>
       <c r="AB11" t="n">
-        <v>934.0153875231877</v>
+        <v>1086.933331689739</v>
       </c>
       <c r="AC11" t="n">
-        <v>844.8742698368037</v>
+        <v>983.1979400337821</v>
       </c>
       <c r="AD11" t="n">
-        <v>682637.9708093742</v>
+        <v>794400.1499989589</v>
       </c>
       <c r="AE11" t="n">
-        <v>934015.3875231877</v>
+        <v>1086933.331689739</v>
       </c>
       <c r="AF11" t="n">
-        <v>9.680941952619639e-07</v>
+        <v>1.665587869834077e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>22</v>
+        <v>21.45833333333333</v>
       </c>
       <c r="AH11" t="n">
-        <v>844874.2698368037</v>
+        <v>983197.940033782</v>
       </c>
     </row>
     <row r="12">
@@ -12692,28 +12692,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>674.150707319156</v>
+        <v>785.9128865087407</v>
       </c>
       <c r="AB12" t="n">
-        <v>922.4027391842321</v>
+        <v>1075.320683350783</v>
       </c>
       <c r="AC12" t="n">
-        <v>834.3699163568634</v>
+        <v>972.6935865538418</v>
       </c>
       <c r="AD12" t="n">
-        <v>674150.707319156</v>
+        <v>785912.8865087407</v>
       </c>
       <c r="AE12" t="n">
-        <v>922402.7391842321</v>
+        <v>1075320.683350783</v>
       </c>
       <c r="AF12" t="n">
-        <v>9.70247855474876e-07</v>
+        <v>1.669293201757279e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>22</v>
+        <v>21.40625</v>
       </c>
       <c r="AH12" t="n">
-        <v>834369.9163568635</v>
+        <v>972693.5865538418</v>
       </c>
     </row>
     <row r="13">
@@ -12798,28 +12798,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>664.4619275304506</v>
+        <v>776.2241067200353</v>
       </c>
       <c r="AB13" t="n">
-        <v>909.1461232385282</v>
+        <v>1062.064067405079</v>
       </c>
       <c r="AC13" t="n">
-        <v>822.3784932312402</v>
+        <v>960.7021634282186</v>
       </c>
       <c r="AD13" t="n">
-        <v>664461.9275304505</v>
+        <v>776224.1067200352</v>
       </c>
       <c r="AE13" t="n">
-        <v>909146.1232385281</v>
+        <v>1062064.067405079</v>
       </c>
       <c r="AF13" t="n">
-        <v>9.749380488274404e-07</v>
+        <v>1.67736259127892e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>22</v>
+        <v>21.30208333333333</v>
       </c>
       <c r="AH13" t="n">
-        <v>822378.4932312402</v>
+        <v>960702.1634282186</v>
       </c>
     </row>
     <row r="14">
@@ -12904,28 +12904,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>655.4063368853247</v>
+        <v>767.1685160749095</v>
       </c>
       <c r="AB14" t="n">
-        <v>896.7558646134032</v>
+        <v>1049.673808779954</v>
       </c>
       <c r="AC14" t="n">
-        <v>811.1707434994602</v>
+        <v>949.4944136964385</v>
       </c>
       <c r="AD14" t="n">
-        <v>655406.3368853247</v>
+        <v>767168.5160749095</v>
       </c>
       <c r="AE14" t="n">
-        <v>896755.8646134032</v>
+        <v>1049673.808779954</v>
       </c>
       <c r="AF14" t="n">
-        <v>9.771156385982739e-07</v>
+        <v>1.681109093556824e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>22</v>
+        <v>21.25868055555556</v>
       </c>
       <c r="AH14" t="n">
-        <v>811170.7434994602</v>
+        <v>949494.4136964385</v>
       </c>
     </row>
     <row r="15">
@@ -13010,28 +13010,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>651.5787989229998</v>
+        <v>763.3409781125845</v>
       </c>
       <c r="AB15" t="n">
-        <v>891.5188583142927</v>
+        <v>1044.436802480844</v>
       </c>
       <c r="AC15" t="n">
-        <v>806.4335497313524</v>
+        <v>944.7572199283305</v>
       </c>
       <c r="AD15" t="n">
-        <v>651578.7989229998</v>
+        <v>763340.9781125844</v>
       </c>
       <c r="AE15" t="n">
-        <v>891518.8583142927</v>
+        <v>1044436.802480844</v>
       </c>
       <c r="AF15" t="n">
-        <v>9.782163982626514e-07</v>
+        <v>1.683002929873128e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>22</v>
+        <v>21.23263888888889</v>
       </c>
       <c r="AH15" t="n">
-        <v>806433.5497313524</v>
+        <v>944757.2199283305</v>
       </c>
     </row>
     <row r="16">
@@ -13116,28 +13116,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>650.6038527434675</v>
+        <v>762.3660319330522</v>
       </c>
       <c r="AB16" t="n">
-        <v>890.1848939398669</v>
+        <v>1043.102838106418</v>
       </c>
       <c r="AC16" t="n">
-        <v>805.2268970445909</v>
+        <v>943.5505672415693</v>
       </c>
       <c r="AD16" t="n">
-        <v>650603.8527434675</v>
+        <v>762366.0319330522</v>
       </c>
       <c r="AE16" t="n">
-        <v>890184.8939398669</v>
+        <v>1043102.838106418</v>
       </c>
       <c r="AF16" t="n">
-        <v>9.784796233997851e-07</v>
+        <v>1.683455803774852e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>22</v>
+        <v>21.23263888888889</v>
       </c>
       <c r="AH16" t="n">
-        <v>805226.8970445909</v>
+        <v>943550.5672415693</v>
       </c>
     </row>
     <row r="17">
@@ -13222,28 +13222,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>651.6477944307003</v>
+        <v>763.409973620285</v>
       </c>
       <c r="AB17" t="n">
-        <v>891.6132610117957</v>
+        <v>1044.531205178347</v>
       </c>
       <c r="AC17" t="n">
-        <v>806.5189427679004</v>
+        <v>944.8426129648788</v>
       </c>
       <c r="AD17" t="n">
-        <v>651647.7944307002</v>
+        <v>763409.9736202849</v>
       </c>
       <c r="AE17" t="n">
-        <v>891613.2610117956</v>
+        <v>1044531.205178347</v>
       </c>
       <c r="AF17" t="n">
-        <v>9.785274825156275e-07</v>
+        <v>1.683538144484257e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>22</v>
+        <v>21.22395833333333</v>
       </c>
       <c r="AH17" t="n">
-        <v>806518.9427679004</v>
+        <v>944842.6129648788</v>
       </c>
     </row>
   </sheetData>
@@ -13519,28 +13519,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>454.8915142498029</v>
+        <v>558.2158791902866</v>
       </c>
       <c r="AB2" t="n">
-        <v>622.4026381938336</v>
+        <v>763.7755926546723</v>
       </c>
       <c r="AC2" t="n">
-        <v>563.0014039522025</v>
+        <v>690.8819220574866</v>
       </c>
       <c r="AD2" t="n">
-        <v>454891.5142498029</v>
+        <v>558215.8791902866</v>
       </c>
       <c r="AE2" t="n">
-        <v>622402.6381938335</v>
+        <v>763775.5926546723</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.104246881449031e-06</v>
+        <v>2.21363996923176e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>23</v>
+        <v>22.50868055555556</v>
       </c>
       <c r="AH2" t="n">
-        <v>563001.4039522025</v>
+        <v>690881.9220574866</v>
       </c>
     </row>
     <row r="3">
@@ -13625,28 +13625,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>413.533978609237</v>
+        <v>508.1556167207789</v>
       </c>
       <c r="AB3" t="n">
-        <v>565.8154333647103</v>
+        <v>695.28093304098</v>
       </c>
       <c r="AC3" t="n">
-        <v>511.8148025313299</v>
+        <v>628.9242966244666</v>
       </c>
       <c r="AD3" t="n">
-        <v>413533.978609237</v>
+        <v>508155.6167207789</v>
       </c>
       <c r="AE3" t="n">
-        <v>565815.4333647103</v>
+        <v>695280.93304098</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.158687435447698e-06</v>
+        <v>2.322774790713375e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>22</v>
+        <v>21.45833333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>511814.8025313299</v>
+        <v>628924.2966244665</v>
       </c>
     </row>
     <row r="4">
@@ -13731,28 +13731,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>416.2795304456754</v>
+        <v>510.9011685572172</v>
       </c>
       <c r="AB4" t="n">
-        <v>569.5720185125238</v>
+        <v>699.0375181887935</v>
       </c>
       <c r="AC4" t="n">
-        <v>515.2128644650363</v>
+        <v>632.3223585581728</v>
       </c>
       <c r="AD4" t="n">
-        <v>416279.5304456754</v>
+        <v>510901.1685572172</v>
       </c>
       <c r="AE4" t="n">
-        <v>569572.0185125237</v>
+        <v>699037.5181887934</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.158887900401928e-06</v>
+        <v>2.323176654864018e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>22</v>
+        <v>21.44965277777778</v>
       </c>
       <c r="AH4" t="n">
-        <v>515212.8644650363</v>
+        <v>632322.3585581728</v>
       </c>
     </row>
   </sheetData>
@@ -14028,28 +14028,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>973.2684374430797</v>
+        <v>1120.396872753232</v>
       </c>
       <c r="AB2" t="n">
-        <v>1331.668813682701</v>
+        <v>1532.976429722516</v>
       </c>
       <c r="AC2" t="n">
-        <v>1204.576211113741</v>
+        <v>1386.67131081573</v>
       </c>
       <c r="AD2" t="n">
-        <v>973268.4374430798</v>
+        <v>1120396.872753232</v>
       </c>
       <c r="AE2" t="n">
-        <v>1331668.813682701</v>
+        <v>1532976.429722516</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.542863937705998e-07</v>
+        <v>1.335897252051269e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>29</v>
+        <v>28.62847222222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>1204576.211113741</v>
+        <v>1386671.31081573</v>
       </c>
     </row>
     <row r="3">
@@ -14134,28 +14134,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>766.4397496657178</v>
+        <v>884.1255192514767</v>
       </c>
       <c r="AB3" t="n">
-        <v>1048.676678427994</v>
+        <v>1209.699540304955</v>
       </c>
       <c r="AC3" t="n">
-        <v>948.5924480657876</v>
+        <v>1094.247514002218</v>
       </c>
       <c r="AD3" t="n">
-        <v>766439.7496657178</v>
+        <v>884125.5192514767</v>
       </c>
       <c r="AE3" t="n">
-        <v>1048676.678427994</v>
+        <v>1209699.540304955</v>
       </c>
       <c r="AF3" t="n">
-        <v>8.959187840122313e-07</v>
+        <v>1.586738739433038e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>25</v>
+        <v>24.10590277777778</v>
       </c>
       <c r="AH3" t="n">
-        <v>948592.4480657876</v>
+        <v>1094247.514002218</v>
       </c>
     </row>
     <row r="4">
@@ -14240,28 +14240,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>697.0454441798735</v>
+        <v>814.7311242570812</v>
       </c>
       <c r="AB4" t="n">
-        <v>953.7283282015705</v>
+        <v>1114.751067608983</v>
       </c>
       <c r="AC4" t="n">
-        <v>862.7058351241275</v>
+        <v>1008.360790279331</v>
       </c>
       <c r="AD4" t="n">
-        <v>697045.4441798734</v>
+        <v>814731.1242570812</v>
       </c>
       <c r="AE4" t="n">
-        <v>953728.3282015705</v>
+        <v>1114751.067608983</v>
       </c>
       <c r="AF4" t="n">
-        <v>9.477154881195696e-07</v>
+        <v>1.67847455125964e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>23</v>
+        <v>22.78645833333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>862705.8351241275</v>
+        <v>1008360.790279331</v>
       </c>
     </row>
     <row r="5">
@@ -14346,28 +14346,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>670.3005699772917</v>
+        <v>778.1720878187357</v>
       </c>
       <c r="AB5" t="n">
-        <v>917.134811417022</v>
+        <v>1064.729381083182</v>
       </c>
       <c r="AC5" t="n">
-        <v>829.6047522221728</v>
+        <v>963.1131033096744</v>
       </c>
       <c r="AD5" t="n">
-        <v>670300.5699772917</v>
+        <v>778172.0878187357</v>
       </c>
       <c r="AE5" t="n">
-        <v>917134.811417022</v>
+        <v>1064729.381083182</v>
       </c>
       <c r="AF5" t="n">
-        <v>9.743850687166235e-07</v>
+        <v>1.725708360230878e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>23</v>
+        <v>22.16145833333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>829604.7522221728</v>
+        <v>963113.1033096744</v>
       </c>
     </row>
     <row r="6">
@@ -14452,28 +14452,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>640.4687292686044</v>
+        <v>748.4254984560689</v>
       </c>
       <c r="AB6" t="n">
-        <v>876.3175708714687</v>
+        <v>1024.028785190278</v>
       </c>
       <c r="AC6" t="n">
-        <v>792.6830518269303</v>
+        <v>926.296915165144</v>
       </c>
       <c r="AD6" t="n">
-        <v>640468.7292686044</v>
+        <v>748425.4984560689</v>
       </c>
       <c r="AE6" t="n">
-        <v>876317.5708714686</v>
+        <v>1024028.785190278</v>
       </c>
       <c r="AF6" t="n">
-        <v>9.925960136765522e-07</v>
+        <v>1.757961296953775e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>22</v>
+        <v>21.75347222222222</v>
       </c>
       <c r="AH6" t="n">
-        <v>792683.0518269303</v>
+        <v>926296.915165144</v>
       </c>
     </row>
     <row r="7">
@@ -14558,28 +14558,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>625.7287508654568</v>
+        <v>733.6855200529212</v>
       </c>
       <c r="AB7" t="n">
-        <v>856.1496821383295</v>
+        <v>1003.860896457139</v>
       </c>
       <c r="AC7" t="n">
-        <v>774.4399580886724</v>
+        <v>908.0538214268861</v>
       </c>
       <c r="AD7" t="n">
-        <v>625728.7508654569</v>
+        <v>733685.5200529213</v>
       </c>
       <c r="AE7" t="n">
-        <v>856149.6821383295</v>
+        <v>1003860.896457139</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.003243943243287e-06</v>
+        <v>1.776819571431099e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>22</v>
+        <v>21.52777777777778</v>
       </c>
       <c r="AH7" t="n">
-        <v>774439.9580886724</v>
+        <v>908053.8214268861</v>
       </c>
     </row>
     <row r="8">
@@ -14664,28 +14664,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>612.0282001507263</v>
+        <v>719.8143771375986</v>
       </c>
       <c r="AB8" t="n">
-        <v>837.403984224796</v>
+        <v>984.8817867687586</v>
       </c>
       <c r="AC8" t="n">
-        <v>757.4833232742542</v>
+        <v>890.8860513298171</v>
       </c>
       <c r="AD8" t="n">
-        <v>612028.2001507264</v>
+        <v>719814.3771375986</v>
       </c>
       <c r="AE8" t="n">
-        <v>837403.9842247959</v>
+        <v>984881.7867687587</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.012001118961722e-06</v>
+        <v>1.792329180347027e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>22</v>
+        <v>21.33680555555556</v>
       </c>
       <c r="AH8" t="n">
-        <v>757483.3232742542</v>
+        <v>890886.051329817</v>
       </c>
     </row>
     <row r="9">
@@ -14770,28 +14770,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>598.3281133556909</v>
+        <v>706.1142903425631</v>
       </c>
       <c r="AB9" t="n">
-        <v>818.6589210666559</v>
+        <v>966.1367236106187</v>
       </c>
       <c r="AC9" t="n">
-        <v>740.5272626350655</v>
+        <v>873.9299906906283</v>
       </c>
       <c r="AD9" t="n">
-        <v>598328.1133556908</v>
+        <v>706114.2903425631</v>
       </c>
       <c r="AE9" t="n">
-        <v>818658.9210666559</v>
+        <v>966136.7236106186</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.017996798928038e-06</v>
+        <v>1.802947975087762e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>22</v>
+        <v>21.21527777777778</v>
       </c>
       <c r="AH9" t="n">
-        <v>740527.2626350656</v>
+        <v>873929.9906906283</v>
       </c>
     </row>
     <row r="10">
@@ -14876,28 +14876,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>588.2986649003734</v>
+        <v>696.0848418872457</v>
       </c>
       <c r="AB10" t="n">
-        <v>804.9361872220526</v>
+        <v>952.4139897660152</v>
       </c>
       <c r="AC10" t="n">
-        <v>728.1142072486134</v>
+        <v>861.5169353041761</v>
       </c>
       <c r="AD10" t="n">
-        <v>588298.6649003734</v>
+        <v>696084.8418872458</v>
       </c>
       <c r="AE10" t="n">
-        <v>804936.1872220526</v>
+        <v>952413.9897660152</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.021031956421359e-06</v>
+        <v>1.808323464541579e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>22</v>
+        <v>21.15451388888889</v>
       </c>
       <c r="AH10" t="n">
-        <v>728114.2072486134</v>
+        <v>861516.9353041761</v>
       </c>
     </row>
     <row r="11">
@@ -14982,28 +14982,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>587.3675949321748</v>
+        <v>685.5102018838753</v>
       </c>
       <c r="AB11" t="n">
-        <v>803.662256215655</v>
+        <v>937.9453007932121</v>
       </c>
       <c r="AC11" t="n">
-        <v>726.961858429493</v>
+        <v>848.4291177000048</v>
       </c>
       <c r="AD11" t="n">
-        <v>587367.5949321748</v>
+        <v>685510.2018838753</v>
       </c>
       <c r="AE11" t="n">
-        <v>803662.256215655</v>
+        <v>937945.3007932121</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.023121736990531e-06</v>
+        <v>1.812024621214698e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>22</v>
+        <v>21.11111111111111</v>
       </c>
       <c r="AH11" t="n">
-        <v>726961.8584294929</v>
+        <v>848429.1177000048</v>
       </c>
     </row>
     <row r="12">
@@ -15088,28 +15088,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>589.0406898777778</v>
+        <v>687.1832968294783</v>
       </c>
       <c r="AB12" t="n">
-        <v>805.9514585319688</v>
+        <v>940.2345031095259</v>
       </c>
       <c r="AC12" t="n">
-        <v>729.0325824896535</v>
+        <v>850.4998417601653</v>
       </c>
       <c r="AD12" t="n">
-        <v>589040.6898777778</v>
+        <v>687183.2968294783</v>
       </c>
       <c r="AE12" t="n">
-        <v>805951.4585319688</v>
+        <v>940234.5031095259</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.022922710269658e-06</v>
+        <v>1.811672130102972e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>22</v>
+        <v>21.11111111111111</v>
       </c>
       <c r="AH12" t="n">
-        <v>729032.5824896535</v>
+        <v>850499.8417601653</v>
       </c>
     </row>
   </sheetData>
@@ -15385,28 +15385,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1107.536464741944</v>
+        <v>1257.484088803308</v>
       </c>
       <c r="AB2" t="n">
-        <v>1515.380252120312</v>
+        <v>1720.545206583365</v>
       </c>
       <c r="AC2" t="n">
-        <v>1370.75448770749</v>
+        <v>1556.338786867411</v>
       </c>
       <c r="AD2" t="n">
-        <v>1107536.464741944</v>
+        <v>1257484.088803308</v>
       </c>
       <c r="AE2" t="n">
-        <v>1515380.252120312</v>
+        <v>1720545.206583365</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.999272039770926e-07</v>
+        <v>1.22061192664949e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>31</v>
+        <v>30.234375</v>
       </c>
       <c r="AH2" t="n">
-        <v>1370754.48770749</v>
+        <v>1556338.786867412</v>
       </c>
     </row>
     <row r="3">
@@ -15491,28 +15491,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>834.7186841760481</v>
+        <v>964.6618353412098</v>
       </c>
       <c r="AB3" t="n">
-        <v>1142.098928879024</v>
+        <v>1319.892880990435</v>
       </c>
       <c r="AC3" t="n">
-        <v>1033.098610052723</v>
+        <v>1193.92415691</v>
       </c>
       <c r="AD3" t="n">
-        <v>834718.6841760481</v>
+        <v>964661.8353412098</v>
       </c>
       <c r="AE3" t="n">
-        <v>1142098.928879024</v>
+        <v>1319892.880990435</v>
       </c>
       <c r="AF3" t="n">
-        <v>8.519835492584573e-07</v>
+        <v>1.485784915381102e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>25</v>
+        <v>24.83506944444444</v>
       </c>
       <c r="AH3" t="n">
-        <v>1033098.610052723</v>
+        <v>1193924.15691</v>
       </c>
     </row>
     <row r="4">
@@ -15597,28 +15597,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>765.1618439694834</v>
+        <v>885.017552094799</v>
       </c>
       <c r="AB4" t="n">
-        <v>1046.928191477186</v>
+        <v>1210.920058994901</v>
       </c>
       <c r="AC4" t="n">
-        <v>947.0108342555475</v>
+        <v>1095.351548101403</v>
       </c>
       <c r="AD4" t="n">
-        <v>765161.8439694834</v>
+        <v>885017.552094799</v>
       </c>
       <c r="AE4" t="n">
-        <v>1046928.191477186</v>
+        <v>1210920.0589949</v>
       </c>
       <c r="AF4" t="n">
-        <v>9.084866926316862e-07</v>
+        <v>1.58432146361449e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>24</v>
+        <v>23.28993055555556</v>
       </c>
       <c r="AH4" t="n">
-        <v>947010.8342555475</v>
+        <v>1095351.548101403</v>
       </c>
     </row>
     <row r="5">
@@ -15703,28 +15703,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>724.244792027697</v>
+        <v>844.185751499033</v>
       </c>
       <c r="AB5" t="n">
-        <v>990.9436758775015</v>
+        <v>1155.052188047866</v>
       </c>
       <c r="AC5" t="n">
-        <v>896.3694022499361</v>
+        <v>1044.815628346504</v>
       </c>
       <c r="AD5" t="n">
-        <v>724244.7920276971</v>
+        <v>844185.7514990331</v>
       </c>
       <c r="AE5" t="n">
-        <v>990943.6758775015</v>
+        <v>1155052.188047866</v>
       </c>
       <c r="AF5" t="n">
-        <v>9.38371444044792e-07</v>
+        <v>1.636437860566231e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>23</v>
+        <v>22.55208333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>896369.4022499361</v>
+        <v>1044815.628346504</v>
       </c>
     </row>
     <row r="6">
@@ -15809,28 +15809,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>703.4864290115095</v>
+        <v>813.4252862975709</v>
       </c>
       <c r="AB6" t="n">
-        <v>962.5411678044109</v>
+        <v>1112.964362503276</v>
       </c>
       <c r="AC6" t="n">
-        <v>870.6775896841709</v>
+        <v>1006.744605801257</v>
       </c>
       <c r="AD6" t="n">
-        <v>703486.4290115095</v>
+        <v>813425.2862975709</v>
       </c>
       <c r="AE6" t="n">
-        <v>962541.1678044109</v>
+        <v>1112964.362503276</v>
       </c>
       <c r="AF6" t="n">
-        <v>9.575795876936722e-07</v>
+        <v>1.669935185850057e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>23</v>
+        <v>22.10069444444444</v>
       </c>
       <c r="AH6" t="n">
-        <v>870677.5896841709</v>
+        <v>1006744.605801257</v>
       </c>
     </row>
     <row r="7">
@@ -15915,28 +15915,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>677.0027447188442</v>
+        <v>796.8583633356087</v>
       </c>
       <c r="AB7" t="n">
-        <v>926.3050225774955</v>
+        <v>1090.296767625662</v>
       </c>
       <c r="AC7" t="n">
-        <v>837.8997712999629</v>
+        <v>986.2403743645921</v>
       </c>
       <c r="AD7" t="n">
-        <v>677002.7447188442</v>
+        <v>796858.3633356087</v>
       </c>
       <c r="AE7" t="n">
-        <v>926305.0225774955</v>
+        <v>1090296.767625662</v>
       </c>
       <c r="AF7" t="n">
-        <v>9.707912804064807e-07</v>
+        <v>1.6929752243067e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>22</v>
+        <v>21.796875</v>
       </c>
       <c r="AH7" t="n">
-        <v>837899.7712999629</v>
+        <v>986240.374364592</v>
       </c>
     </row>
     <row r="8">
@@ -16021,28 +16021,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>665.3730490104423</v>
+        <v>775.3971576425245</v>
       </c>
       <c r="AB8" t="n">
-        <v>910.3927598432957</v>
+        <v>1060.932599194811</v>
       </c>
       <c r="AC8" t="n">
-        <v>823.5061525881143</v>
+        <v>959.678680955912</v>
       </c>
       <c r="AD8" t="n">
-        <v>665373.0490104423</v>
+        <v>775397.1576425245</v>
       </c>
       <c r="AE8" t="n">
-        <v>910392.7598432957</v>
+        <v>1060932.59919481</v>
       </c>
       <c r="AF8" t="n">
-        <v>9.783234078017903e-07</v>
+        <v>1.706110596784748e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>22</v>
+        <v>21.63194444444444</v>
       </c>
       <c r="AH8" t="n">
-        <v>823506.1525881144</v>
+        <v>959678.680955912</v>
       </c>
     </row>
     <row r="9">
@@ -16127,28 +16127,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>653.2655498728748</v>
+        <v>763.1190663043645</v>
       </c>
       <c r="AB9" t="n">
-        <v>893.8267453781117</v>
+        <v>1044.13317295478</v>
       </c>
       <c r="AC9" t="n">
-        <v>808.5211752929401</v>
+        <v>944.482568378087</v>
       </c>
       <c r="AD9" t="n">
-        <v>653265.5498728747</v>
+        <v>763119.0663043646</v>
       </c>
       <c r="AE9" t="n">
-        <v>893826.7453781117</v>
+        <v>1044133.17295478</v>
       </c>
       <c r="AF9" t="n">
-        <v>9.861724208156729e-07</v>
+        <v>1.719798590111388e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>22</v>
+        <v>21.45833333333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>808521.1752929401</v>
+        <v>944482.568378087</v>
       </c>
     </row>
     <row r="10">
@@ -16233,28 +16233,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>641.3733085899275</v>
+        <v>751.2268250214173</v>
       </c>
       <c r="AB10" t="n">
-        <v>877.5552562061259</v>
+        <v>1027.861683782794</v>
       </c>
       <c r="AC10" t="n">
-        <v>793.8026142103499</v>
+        <v>929.7640072954968</v>
       </c>
       <c r="AD10" t="n">
-        <v>641373.3085899275</v>
+        <v>751226.8250214173</v>
       </c>
       <c r="AE10" t="n">
-        <v>877555.256206126</v>
+        <v>1027861.683782794</v>
       </c>
       <c r="AF10" t="n">
-        <v>9.90706322742947e-07</v>
+        <v>1.727705319175845e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>22</v>
+        <v>21.35416666666667</v>
       </c>
       <c r="AH10" t="n">
-        <v>793802.61421035</v>
+        <v>929764.0072954968</v>
       </c>
     </row>
     <row r="11">
@@ -16339,28 +16339,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>630.367324411901</v>
+        <v>740.2208408433906</v>
       </c>
       <c r="AB11" t="n">
-        <v>862.4963831039965</v>
+        <v>1012.802810680664</v>
       </c>
       <c r="AC11" t="n">
-        <v>780.1809388218269</v>
+        <v>916.1423319069734</v>
       </c>
       <c r="AD11" t="n">
-        <v>630367.3244119009</v>
+        <v>740220.8408433907</v>
       </c>
       <c r="AE11" t="n">
-        <v>862496.3831039965</v>
+        <v>1012802.810680664</v>
       </c>
       <c r="AF11" t="n">
-        <v>9.965321429613253e-07</v>
+        <v>1.737865040930711e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>22</v>
+        <v>21.23263888888889</v>
       </c>
       <c r="AH11" t="n">
-        <v>780180.9388218268</v>
+        <v>916142.3319069734</v>
       </c>
     </row>
     <row r="12">
@@ -16445,28 +16445,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>622.4431612630176</v>
+        <v>732.2966776945074</v>
       </c>
       <c r="AB12" t="n">
-        <v>851.6541934942887</v>
+        <v>1001.960621070957</v>
       </c>
       <c r="AC12" t="n">
-        <v>770.3735125713609</v>
+        <v>906.3349056565077</v>
       </c>
       <c r="AD12" t="n">
-        <v>622443.1612630176</v>
+        <v>732296.6776945074</v>
       </c>
       <c r="AE12" t="n">
-        <v>851654.1934942887</v>
+        <v>1001960.621070957</v>
       </c>
       <c r="AF12" t="n">
-        <v>9.985065841232029e-07</v>
+        <v>1.741308293910394e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>22</v>
+        <v>21.18923611111111</v>
       </c>
       <c r="AH12" t="n">
-        <v>770373.5125713609</v>
+        <v>906334.9056565077</v>
       </c>
     </row>
     <row r="13">
@@ -16551,28 +16551,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>618.6603117515749</v>
+        <v>728.5138281830647</v>
       </c>
       <c r="AB13" t="n">
-        <v>846.4783319051909</v>
+        <v>996.7847594818587</v>
       </c>
       <c r="AC13" t="n">
-        <v>765.6916279479591</v>
+        <v>901.6530210331058</v>
       </c>
       <c r="AD13" t="n">
-        <v>618660.3117515749</v>
+        <v>728513.8281830647</v>
       </c>
       <c r="AE13" t="n">
-        <v>846478.3319051908</v>
+        <v>996784.7594818587</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.00026164293376e-06</v>
+        <v>1.744368963225667e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>22</v>
+        <v>21.15451388888889</v>
       </c>
       <c r="AH13" t="n">
-        <v>765691.6279479591</v>
+        <v>901653.0210331058</v>
       </c>
     </row>
     <row r="14">
@@ -16657,28 +16657,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>620.733144068447</v>
+        <v>730.5866604999369</v>
       </c>
       <c r="AB14" t="n">
-        <v>849.3144725280432</v>
+        <v>999.6209001047113</v>
       </c>
       <c r="AC14" t="n">
-        <v>768.2570912903149</v>
+        <v>904.2184843754616</v>
       </c>
       <c r="AD14" t="n">
-        <v>620733.1440684471</v>
+        <v>730586.6604999369</v>
       </c>
       <c r="AE14" t="n">
-        <v>849314.4725280432</v>
+        <v>999620.9001047113</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.000017884765627e-06</v>
+        <v>1.743943870265212e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>22</v>
+        <v>21.16319444444444</v>
       </c>
       <c r="AH14" t="n">
-        <v>768257.0912903149</v>
+        <v>904218.4843754616</v>
       </c>
     </row>
   </sheetData>
@@ -16954,28 +16954,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1391.959827638555</v>
+        <v>1577.8628017587</v>
       </c>
       <c r="AB2" t="n">
-        <v>1904.540845108642</v>
+        <v>2158.901495760213</v>
       </c>
       <c r="AC2" t="n">
-        <v>1722.774139891337</v>
+        <v>1952.858967042137</v>
       </c>
       <c r="AD2" t="n">
-        <v>1391959.827638555</v>
+        <v>1577862.801758701</v>
       </c>
       <c r="AE2" t="n">
-        <v>1904540.845108642</v>
+        <v>2158901.495760213</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.063662255773151e-07</v>
+        <v>1.0307823957238e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>34</v>
+        <v>33.68055555555556</v>
       </c>
       <c r="AH2" t="n">
-        <v>1722774.139891337</v>
+        <v>1952858.967042137</v>
       </c>
     </row>
     <row r="3">
@@ -17060,28 +17060,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>996.6377168443562</v>
+        <v>1130.938994708377</v>
       </c>
       <c r="AB3" t="n">
-        <v>1363.643692739371</v>
+        <v>1547.400626067142</v>
       </c>
       <c r="AC3" t="n">
-        <v>1233.499452590268</v>
+        <v>1399.718882105712</v>
       </c>
       <c r="AD3" t="n">
-        <v>996637.7168443562</v>
+        <v>1130938.994708377</v>
       </c>
       <c r="AE3" t="n">
-        <v>1363643.692739371</v>
+        <v>1547400.626067142</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.742862842435148e-07</v>
+        <v>1.316235366322929e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>27</v>
+        <v>26.38020833333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>1233499.452590268</v>
+        <v>1399718.882105712</v>
       </c>
     </row>
     <row r="4">
@@ -17166,28 +17166,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>892.013698087831</v>
+        <v>1015.977550628003</v>
       </c>
       <c r="AB4" t="n">
-        <v>1220.492494590745</v>
+        <v>1390.105306535406</v>
       </c>
       <c r="AC4" t="n">
-        <v>1104.010403878978</v>
+        <v>1257.435607104718</v>
       </c>
       <c r="AD4" t="n">
-        <v>892013.698087831</v>
+        <v>1015977.550628003</v>
       </c>
       <c r="AE4" t="n">
-        <v>1220492.494590745</v>
+        <v>1390105.306535406</v>
       </c>
       <c r="AF4" t="n">
-        <v>8.39412068520948e-07</v>
+        <v>1.426944883293419e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>25</v>
+        <v>24.33159722222222</v>
       </c>
       <c r="AH4" t="n">
-        <v>1104010.403878978</v>
+        <v>1257435.607104718</v>
       </c>
     </row>
     <row r="5">
@@ -17272,28 +17272,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>842.4885975016958</v>
+        <v>966.3671091872961</v>
       </c>
       <c r="AB5" t="n">
-        <v>1152.730067075559</v>
+        <v>1322.226111898023</v>
       </c>
       <c r="AC5" t="n">
-        <v>1042.715127340677</v>
+        <v>1196.034707534478</v>
       </c>
       <c r="AD5" t="n">
-        <v>842488.5975016959</v>
+        <v>966367.1091872961</v>
       </c>
       <c r="AE5" t="n">
-        <v>1152730.067075559</v>
+        <v>1322226.111898023</v>
       </c>
       <c r="AF5" t="n">
-        <v>8.727043317986099e-07</v>
+        <v>1.483539524374794e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>24</v>
+        <v>23.40277777777778</v>
       </c>
       <c r="AH5" t="n">
-        <v>1042715.127340677</v>
+        <v>1196034.707534478</v>
       </c>
     </row>
     <row r="6">
@@ -17378,28 +17378,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>804.4332699987301</v>
+        <v>928.3970330303507</v>
       </c>
       <c r="AB6" t="n">
-        <v>1100.661089103441</v>
+        <v>1270.273778578554</v>
       </c>
       <c r="AC6" t="n">
-        <v>995.6155395469489</v>
+        <v>1149.040631991462</v>
       </c>
       <c r="AD6" t="n">
-        <v>804433.2699987302</v>
+        <v>928397.0330303507</v>
       </c>
       <c r="AE6" t="n">
-        <v>1100661.089103441</v>
+        <v>1270273.778578554</v>
       </c>
       <c r="AF6" t="n">
-        <v>8.964441859662146e-07</v>
+        <v>1.523895703068155e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>23</v>
+        <v>22.78645833333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>995615.5395469489</v>
+        <v>1149040.631991462</v>
       </c>
     </row>
     <row r="7">
@@ -17484,28 +17484,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>787.4538955199445</v>
+        <v>901.080322736267</v>
       </c>
       <c r="AB7" t="n">
-        <v>1077.429159864432</v>
+        <v>1232.897850425984</v>
       </c>
       <c r="AC7" t="n">
-        <v>974.6008330282932</v>
+        <v>1115.231809964328</v>
       </c>
       <c r="AD7" t="n">
-        <v>787453.8955199445</v>
+        <v>901080.322736267</v>
       </c>
       <c r="AE7" t="n">
-        <v>1077429.159864432</v>
+        <v>1232897.850425984</v>
       </c>
       <c r="AF7" t="n">
-        <v>9.105610467199935e-07</v>
+        <v>1.547893430735169e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>23</v>
+        <v>22.43055555555556</v>
       </c>
       <c r="AH7" t="n">
-        <v>974600.8330282932</v>
+        <v>1115231.809964329</v>
       </c>
     </row>
     <row r="8">
@@ -17590,28 +17590,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>773.3649314755828</v>
+        <v>886.9913586919051</v>
       </c>
       <c r="AB8" t="n">
-        <v>1058.15201769771</v>
+        <v>1213.620708259262</v>
       </c>
       <c r="AC8" t="n">
-        <v>957.1634742543243</v>
+        <v>1097.79445119036</v>
       </c>
       <c r="AD8" t="n">
-        <v>773364.9314755828</v>
+        <v>886991.3586919052</v>
       </c>
       <c r="AE8" t="n">
-        <v>1058152.01769771</v>
+        <v>1213620.708259262</v>
       </c>
       <c r="AF8" t="n">
-        <v>9.210781079815589e-07</v>
+        <v>1.565771737847094e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>23</v>
+        <v>22.17013888888889</v>
       </c>
       <c r="AH8" t="n">
-        <v>957163.4742543243</v>
+        <v>1097794.45119036</v>
       </c>
     </row>
     <row r="9">
@@ -17696,28 +17696,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>752.5040160533729</v>
+        <v>876.3824382304219</v>
       </c>
       <c r="AB9" t="n">
-        <v>1029.609192898407</v>
+        <v>1199.105115251322</v>
       </c>
       <c r="AC9" t="n">
-        <v>931.3447365937604</v>
+        <v>1084.664206006335</v>
       </c>
       <c r="AD9" t="n">
-        <v>752504.0160533729</v>
+        <v>876382.438230422</v>
       </c>
       <c r="AE9" t="n">
-        <v>1029609.192898407</v>
+        <v>1199105.115251322</v>
       </c>
       <c r="AF9" t="n">
-        <v>9.287482689911121e-07</v>
+        <v>1.578810503212838e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>22</v>
+        <v>21.98784722222222</v>
       </c>
       <c r="AH9" t="n">
-        <v>931344.7365937604</v>
+        <v>1084664.206006335</v>
       </c>
     </row>
     <row r="10">
@@ -17802,28 +17802,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>742.3394738364631</v>
+        <v>866.2178960135121</v>
       </c>
       <c r="AB10" t="n">
-        <v>1015.701617809277</v>
+        <v>1185.197540162192</v>
       </c>
       <c r="AC10" t="n">
-        <v>918.7644809517326</v>
+        <v>1072.083950364307</v>
       </c>
       <c r="AD10" t="n">
-        <v>742339.4738364631</v>
+        <v>866217.8960135122</v>
       </c>
       <c r="AE10" t="n">
-        <v>1015701.617809277</v>
+        <v>1185197.540162192</v>
       </c>
       <c r="AF10" t="n">
-        <v>9.347008786089555e-07</v>
+        <v>1.588929545045763e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>22</v>
+        <v>21.84895833333333</v>
       </c>
       <c r="AH10" t="n">
-        <v>918764.4809517326</v>
+        <v>1072083.950364307</v>
       </c>
     </row>
     <row r="11">
@@ -17908,28 +17908,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>731.4849962269732</v>
+        <v>845.196674789316</v>
       </c>
       <c r="AB11" t="n">
-        <v>1000.850042678217</v>
+        <v>1156.435377892419</v>
       </c>
       <c r="AC11" t="n">
-        <v>905.3303193068648</v>
+        <v>1046.066808493612</v>
       </c>
       <c r="AD11" t="n">
-        <v>731484.9962269731</v>
+        <v>845196.674789316</v>
       </c>
       <c r="AE11" t="n">
-        <v>1000850.042678217</v>
+        <v>1156435.377892419</v>
       </c>
       <c r="AF11" t="n">
-        <v>9.422533991122273e-07</v>
+        <v>1.601768329347615e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>22</v>
+        <v>21.67534722222222</v>
       </c>
       <c r="AH11" t="n">
-        <v>905330.3193068648</v>
+        <v>1046066.808493612</v>
       </c>
     </row>
     <row r="12">
@@ -18014,28 +18014,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>723.9115271256348</v>
+        <v>837.6232056879778</v>
       </c>
       <c r="AB12" t="n">
-        <v>990.4876881358902</v>
+        <v>1146.073023350092</v>
       </c>
       <c r="AC12" t="n">
-        <v>895.9569333384017</v>
+        <v>1036.693422525149</v>
       </c>
       <c r="AD12" t="n">
-        <v>723911.5271256348</v>
+        <v>837623.2056879778</v>
       </c>
       <c r="AE12" t="n">
-        <v>990487.6881358902</v>
+        <v>1146073.023350092</v>
       </c>
       <c r="AF12" t="n">
-        <v>9.458767267056971e-07</v>
+        <v>1.607927746115482e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>22</v>
+        <v>21.58854166666667</v>
       </c>
       <c r="AH12" t="n">
-        <v>895956.9333384016</v>
+        <v>1036693.422525149</v>
       </c>
     </row>
     <row r="13">
@@ -18120,28 +18120,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>715.1006132566832</v>
+        <v>828.8122918190262</v>
       </c>
       <c r="AB13" t="n">
-        <v>978.4322070703046</v>
+        <v>1134.017542284506</v>
       </c>
       <c r="AC13" t="n">
-        <v>885.0520104657415</v>
+        <v>1025.788499652489</v>
       </c>
       <c r="AD13" t="n">
-        <v>715100.6132566832</v>
+        <v>828812.2918190262</v>
       </c>
       <c r="AE13" t="n">
-        <v>978432.2070703045</v>
+        <v>1134017.542284506</v>
       </c>
       <c r="AF13" t="n">
-        <v>9.481824806288143e-07</v>
+        <v>1.611847374967761e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>22</v>
+        <v>21.53645833333333</v>
       </c>
       <c r="AH13" t="n">
-        <v>885052.0104657415</v>
+        <v>1025788.499652489</v>
       </c>
     </row>
     <row r="14">
@@ -18226,28 +18226,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>706.5183039749359</v>
+        <v>820.0593903366868</v>
       </c>
       <c r="AB14" t="n">
-        <v>966.6895128862545</v>
+        <v>1122.041436325609</v>
       </c>
       <c r="AC14" t="n">
-        <v>874.4300225336423</v>
+        <v>1014.955376437739</v>
       </c>
       <c r="AD14" t="n">
-        <v>706518.3039749359</v>
+        <v>820059.3903366867</v>
       </c>
       <c r="AE14" t="n">
-        <v>966689.5128862546</v>
+        <v>1122041.436325609</v>
       </c>
       <c r="AF14" t="n">
-        <v>9.524881231587169e-07</v>
+        <v>1.6191666819062e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>22</v>
+        <v>21.44097222222222</v>
       </c>
       <c r="AH14" t="n">
-        <v>874430.0225336422</v>
+        <v>1014955.376437739</v>
       </c>
     </row>
     <row r="15">
@@ -18332,28 +18332,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>699.3935308702628</v>
+        <v>812.9346172320135</v>
       </c>
       <c r="AB15" t="n">
-        <v>956.9410840016351</v>
+        <v>1112.293007440989</v>
       </c>
       <c r="AC15" t="n">
-        <v>865.6119700197651</v>
+        <v>1006.137323923861</v>
       </c>
       <c r="AD15" t="n">
-        <v>699393.5308702628</v>
+        <v>812934.6172320135</v>
       </c>
       <c r="AE15" t="n">
-        <v>956941.0840016351</v>
+        <v>1112293.007440989</v>
       </c>
       <c r="AF15" t="n">
-        <v>9.553114953094727e-07</v>
+        <v>1.623966227439603e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>22</v>
+        <v>21.38020833333333</v>
       </c>
       <c r="AH15" t="n">
-        <v>865611.9700197651</v>
+        <v>1006137.323923861</v>
       </c>
     </row>
     <row r="16">
@@ -18438,28 +18438,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>692.8503509354457</v>
+        <v>806.3914372971965</v>
       </c>
       <c r="AB16" t="n">
-        <v>947.9884165500926</v>
+        <v>1103.340339989447</v>
       </c>
       <c r="AC16" t="n">
-        <v>857.5137325846501</v>
+        <v>998.0390864887465</v>
       </c>
       <c r="AD16" t="n">
-        <v>692850.3509354457</v>
+        <v>806391.4372971965</v>
       </c>
       <c r="AE16" t="n">
-        <v>947988.4165500925</v>
+        <v>1103340.339989447</v>
       </c>
       <c r="AF16" t="n">
-        <v>9.568408218911319e-07</v>
+        <v>1.626565981270196e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>22</v>
+        <v>21.34548611111111</v>
       </c>
       <c r="AH16" t="n">
-        <v>857513.7325846502</v>
+        <v>998039.0864887466</v>
       </c>
     </row>
     <row r="17">
@@ -18544,28 +18544,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>684.7953195753759</v>
+        <v>798.3364059371268</v>
       </c>
       <c r="AB17" t="n">
-        <v>936.9671672803418</v>
+        <v>1092.319090719696</v>
       </c>
       <c r="AC17" t="n">
-        <v>847.5443358767839</v>
+        <v>988.0696897808801</v>
       </c>
       <c r="AD17" t="n">
-        <v>684795.3195753759</v>
+        <v>798336.4059371267</v>
       </c>
       <c r="AE17" t="n">
-        <v>936967.1672803417</v>
+        <v>1092319.090719696</v>
       </c>
       <c r="AF17" t="n">
-        <v>9.594994973330939e-07</v>
+        <v>1.63108555331415e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>22</v>
+        <v>21.28472222222222</v>
       </c>
       <c r="AH17" t="n">
-        <v>847544.3358767838</v>
+        <v>988069.6897808801</v>
       </c>
     </row>
     <row r="18">
@@ -18650,28 +18650,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>682.0594050981929</v>
+        <v>795.6004914599436</v>
       </c>
       <c r="AB18" t="n">
-        <v>933.2237683926317</v>
+        <v>1088.575691831986</v>
       </c>
       <c r="AC18" t="n">
-        <v>844.1582017250234</v>
+        <v>984.6835556291198</v>
       </c>
       <c r="AD18" t="n">
-        <v>682059.4050981929</v>
+        <v>795600.4914599436</v>
       </c>
       <c r="AE18" t="n">
-        <v>933223.7683926317</v>
+        <v>1088575.691831986</v>
       </c>
       <c r="AF18" t="n">
-        <v>9.593583287255558e-07</v>
+        <v>1.63084557603748e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>22</v>
+        <v>21.28472222222222</v>
       </c>
       <c r="AH18" t="n">
-        <v>844158.2017250234</v>
+        <v>984683.5556291199</v>
       </c>
     </row>
     <row r="19">
@@ -18756,28 +18756,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>682.0806251506135</v>
+        <v>795.6217115123642</v>
       </c>
       <c r="AB19" t="n">
-        <v>933.2528026045163</v>
+        <v>1088.604726043871</v>
       </c>
       <c r="AC19" t="n">
-        <v>844.1844649524755</v>
+        <v>984.7098188565719</v>
       </c>
       <c r="AD19" t="n">
-        <v>682080.6251506135</v>
+        <v>795621.7115123642</v>
       </c>
       <c r="AE19" t="n">
-        <v>933252.8026045163</v>
+        <v>1088604.726043871</v>
       </c>
       <c r="AF19" t="n">
-        <v>9.612170487248036e-07</v>
+        <v>1.63400527684697e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>22</v>
+        <v>21.25</v>
       </c>
       <c r="AH19" t="n">
-        <v>844184.4649524755</v>
+        <v>984709.8188565719</v>
       </c>
     </row>
   </sheetData>
@@ -19053,28 +19053,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>858.5178600678444</v>
+        <v>992.861316923408</v>
       </c>
       <c r="AB2" t="n">
-        <v>1174.662011279719</v>
+        <v>1358.476655764524</v>
       </c>
       <c r="AC2" t="n">
-        <v>1062.553917571669</v>
+        <v>1228.825550372318</v>
       </c>
       <c r="AD2" t="n">
-        <v>858517.8600678444</v>
+        <v>992861.3169234081</v>
       </c>
       <c r="AE2" t="n">
-        <v>1174662.011279719</v>
+        <v>1358476.655764524</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.132236649552128e-07</v>
+        <v>1.466434709115537e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>28</v>
+        <v>27.17013888888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>1062553.917571669</v>
+        <v>1228825.550372318</v>
       </c>
     </row>
     <row r="3">
@@ -19159,28 +19159,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>689.4914255465462</v>
+        <v>804.618589679802</v>
       </c>
       <c r="AB3" t="n">
-        <v>943.3925866476703</v>
+        <v>1100.914651666811</v>
       </c>
       <c r="AC3" t="n">
-        <v>853.3565222378273</v>
+        <v>995.8449024551478</v>
       </c>
       <c r="AD3" t="n">
-        <v>689491.4255465462</v>
+        <v>804618.589679802</v>
       </c>
       <c r="AE3" t="n">
-        <v>943392.5866476704</v>
+        <v>1100914.651666811</v>
       </c>
       <c r="AF3" t="n">
-        <v>9.431398935048201e-07</v>
+        <v>1.700704412559328e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>24</v>
+        <v>23.42881944444444</v>
       </c>
       <c r="AH3" t="n">
-        <v>853356.5222378273</v>
+        <v>995844.9024551478</v>
       </c>
     </row>
     <row r="4">
@@ -19265,28 +19265,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>637.9880246192747</v>
+        <v>743.592383245948</v>
       </c>
       <c r="AB4" t="n">
-        <v>872.9233613292903</v>
+        <v>1017.415903737796</v>
       </c>
       <c r="AC4" t="n">
-        <v>789.6127808796545</v>
+        <v>920.3151578372496</v>
       </c>
       <c r="AD4" t="n">
-        <v>637988.0246192747</v>
+        <v>743592.383245948</v>
       </c>
       <c r="AE4" t="n">
-        <v>872923.3613292903</v>
+        <v>1017415.903737796</v>
       </c>
       <c r="AF4" t="n">
-        <v>9.900003513339401e-07</v>
+        <v>1.785204907081276e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>23</v>
+        <v>22.31770833333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>789612.7808796545</v>
+        <v>920315.1578372496</v>
       </c>
     </row>
     <row r="5">
@@ -19371,28 +19371,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>603.8753814395266</v>
+        <v>709.5649914122205</v>
       </c>
       <c r="AB5" t="n">
-        <v>826.2489379871556</v>
+        <v>970.8581250483106</v>
       </c>
       <c r="AC5" t="n">
-        <v>747.3928989933286</v>
+        <v>878.2007882016359</v>
       </c>
       <c r="AD5" t="n">
-        <v>603875.3814395266</v>
+        <v>709564.9914122205</v>
       </c>
       <c r="AE5" t="n">
-        <v>826248.9379871556</v>
+        <v>970858.1250483106</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.015148712189546e-06</v>
+        <v>1.8305533528106e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>22</v>
+        <v>21.76215277777778</v>
       </c>
       <c r="AH5" t="n">
-        <v>747392.8989933286</v>
+        <v>878200.7882016358</v>
       </c>
     </row>
     <row r="6">
@@ -19477,28 +19477,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>585.5167242298998</v>
+        <v>691.0357420020013</v>
       </c>
       <c r="AB6" t="n">
-        <v>801.1298132661498</v>
+        <v>945.505588552458</v>
       </c>
       <c r="AC6" t="n">
-        <v>724.6711082807824</v>
+        <v>855.2678622064385</v>
       </c>
       <c r="AD6" t="n">
-        <v>585516.7242298997</v>
+        <v>691035.7420020013</v>
       </c>
       <c r="AE6" t="n">
-        <v>801129.8132661497</v>
+        <v>945505.588552458</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.028690137265641e-06</v>
+        <v>1.854971746664851e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>22</v>
+        <v>21.47569444444444</v>
       </c>
       <c r="AH6" t="n">
-        <v>724671.1082807824</v>
+        <v>855267.8622064386</v>
       </c>
     </row>
     <row r="7">
@@ -19583,28 +19583,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>570.072119655168</v>
+        <v>675.5911374272696</v>
       </c>
       <c r="AB7" t="n">
-        <v>779.9978239191364</v>
+        <v>924.3735992054445</v>
       </c>
       <c r="AC7" t="n">
-        <v>705.5559263381148</v>
+        <v>836.152680263771</v>
       </c>
       <c r="AD7" t="n">
-        <v>570072.1196551679</v>
+        <v>675591.1374272696</v>
       </c>
       <c r="AE7" t="n">
-        <v>779997.8239191364</v>
+        <v>924373.5992054446</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.040424342077822e-06</v>
+        <v>1.876131294722764e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>22</v>
+        <v>21.23263888888889</v>
       </c>
       <c r="AH7" t="n">
-        <v>705555.9263381148</v>
+        <v>836152.680263771</v>
       </c>
     </row>
     <row r="8">
@@ -19689,28 +19689,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>556.2521748594958</v>
+        <v>652.3337279795867</v>
       </c>
       <c r="AB8" t="n">
-        <v>761.0887657567635</v>
+        <v>892.5517855546346</v>
       </c>
       <c r="AC8" t="n">
-        <v>688.4515221477288</v>
+        <v>807.3678958455984</v>
       </c>
       <c r="AD8" t="n">
-        <v>556252.1748594957</v>
+        <v>652333.7279795867</v>
       </c>
       <c r="AE8" t="n">
-        <v>761088.7657567634</v>
+        <v>892551.7855546346</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.04783139977922e-06</v>
+        <v>1.889487972564092e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>22</v>
+        <v>21.08506944444444</v>
       </c>
       <c r="AH8" t="n">
-        <v>688451.5221477288</v>
+        <v>807367.8958455983</v>
       </c>
     </row>
     <row r="9">
@@ -19795,28 +19795,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>553.4845264513882</v>
+        <v>649.5660795714792</v>
       </c>
       <c r="AB9" t="n">
-        <v>757.3019471047604</v>
+        <v>888.7649669026316</v>
       </c>
       <c r="AC9" t="n">
-        <v>685.0261121530397</v>
+        <v>803.9424858509092</v>
       </c>
       <c r="AD9" t="n">
-        <v>553484.5264513883</v>
+        <v>649566.0795714792</v>
       </c>
       <c r="AE9" t="n">
-        <v>757301.9471047604</v>
+        <v>888764.9669026316</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.047475046487744e-06</v>
+        <v>1.888845383252139e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>22</v>
+        <v>21.09375</v>
       </c>
       <c r="AH9" t="n">
-        <v>685026.1121530397</v>
+        <v>803942.4858509091</v>
       </c>
     </row>
   </sheetData>
@@ -20092,28 +20092,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>689.7763300584327</v>
+        <v>809.8781043510315</v>
       </c>
       <c r="AB2" t="n">
-        <v>943.7824055699334</v>
+        <v>1108.110951673399</v>
       </c>
       <c r="AC2" t="n">
-        <v>853.7091373892639</v>
+        <v>1002.354397689177</v>
       </c>
       <c r="AD2" t="n">
-        <v>689776.3300584326</v>
+        <v>809878.1043510316</v>
       </c>
       <c r="AE2" t="n">
-        <v>943782.4055699335</v>
+        <v>1108110.951673399</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.155697407118145e-07</v>
+        <v>1.708160480949596e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>26</v>
+        <v>25.13888888888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>853709.137389264</v>
+        <v>1002354.397689177</v>
       </c>
     </row>
     <row r="3">
@@ -20198,28 +20198,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>574.7702595407168</v>
+        <v>676.4539336889349</v>
       </c>
       <c r="AB3" t="n">
-        <v>786.4260261778479</v>
+        <v>925.5541151145396</v>
       </c>
       <c r="AC3" t="n">
-        <v>711.3706299952934</v>
+        <v>837.2205293913665</v>
       </c>
       <c r="AD3" t="n">
-        <v>574770.2595407168</v>
+        <v>676453.9336889349</v>
       </c>
       <c r="AE3" t="n">
-        <v>786426.0261778479</v>
+        <v>925554.1151145396</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.026824283934622e-06</v>
+        <v>1.915725896896556e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>23</v>
+        <v>22.41319444444444</v>
       </c>
       <c r="AH3" t="n">
-        <v>711370.6299952933</v>
+        <v>837220.5293913665</v>
       </c>
     </row>
     <row r="4">
@@ -20304,28 +20304,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>533.3244534754011</v>
+        <v>635.0933789696398</v>
       </c>
       <c r="AB4" t="n">
-        <v>729.7180458593657</v>
+        <v>868.9627794487067</v>
       </c>
       <c r="AC4" t="n">
-        <v>660.0747797282569</v>
+        <v>786.0301913750423</v>
       </c>
       <c r="AD4" t="n">
-        <v>533324.4534754012</v>
+        <v>635093.3789696399</v>
       </c>
       <c r="AE4" t="n">
-        <v>729718.0458593657</v>
+        <v>868962.7794487067</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.064580830538359e-06</v>
+        <v>1.986167544253199e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>22</v>
+        <v>21.62326388888889</v>
       </c>
       <c r="AH4" t="n">
-        <v>660074.7797282569</v>
+        <v>786030.1913750422</v>
       </c>
     </row>
     <row r="5">
@@ -20410,28 +20410,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>510.1970448286355</v>
+        <v>611.7953781222819</v>
       </c>
       <c r="AB5" t="n">
-        <v>698.0741050396014</v>
+        <v>837.0854268540954</v>
       </c>
       <c r="AC5" t="n">
-        <v>631.4508922077808</v>
+        <v>757.1951685719151</v>
       </c>
       <c r="AD5" t="n">
-        <v>510197.0448286355</v>
+        <v>611795.378122282</v>
       </c>
       <c r="AE5" t="n">
-        <v>698074.1050396013</v>
+        <v>837085.4268540954</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.08369773369938e-06</v>
+        <v>2.021833574972398e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>22</v>
+        <v>21.24131944444444</v>
       </c>
       <c r="AH5" t="n">
-        <v>631450.8922077809</v>
+        <v>757195.1685719151</v>
       </c>
     </row>
     <row r="6">
@@ -20516,28 +20516,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>503.0105626687935</v>
+        <v>595.527857172107</v>
       </c>
       <c r="AB6" t="n">
-        <v>688.2412431032885</v>
+        <v>814.8274870176923</v>
       </c>
       <c r="AC6" t="n">
-        <v>622.5564648141615</v>
+        <v>737.0614952742837</v>
       </c>
       <c r="AD6" t="n">
-        <v>503010.5626687935</v>
+        <v>595527.857172107</v>
       </c>
       <c r="AE6" t="n">
-        <v>688241.2431032886</v>
+        <v>814827.4870176923</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.090379369755659e-06</v>
+        <v>2.034299372116973e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>22</v>
+        <v>21.11111111111111</v>
       </c>
       <c r="AH6" t="n">
-        <v>622556.4648141614</v>
+        <v>737061.4952742837</v>
       </c>
     </row>
     <row r="7">
@@ -20622,28 +20622,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>505.1026474934148</v>
+        <v>597.6199419967285</v>
       </c>
       <c r="AB7" t="n">
-        <v>691.103725856604</v>
+        <v>817.6899697710079</v>
       </c>
       <c r="AC7" t="n">
-        <v>625.1457562310202</v>
+        <v>739.6507866911426</v>
       </c>
       <c r="AD7" t="n">
-        <v>505102.6474934148</v>
+        <v>597619.9419967284</v>
       </c>
       <c r="AE7" t="n">
-        <v>691103.7258566041</v>
+        <v>817689.9697710079</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.090299826469275e-06</v>
+        <v>2.034150969770013e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>22</v>
+        <v>21.11111111111111</v>
       </c>
       <c r="AH7" t="n">
-        <v>625145.7562310202</v>
+        <v>739650.7866911426</v>
       </c>
     </row>
   </sheetData>
@@ -38428,28 +38428,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>571.2813171725201</v>
+        <v>687.6793298677819</v>
       </c>
       <c r="AB2" t="n">
-        <v>781.6523013084075</v>
+        <v>940.913197395966</v>
       </c>
       <c r="AC2" t="n">
-        <v>707.0525027274272</v>
+        <v>851.113762416461</v>
       </c>
       <c r="AD2" t="n">
-        <v>571281.3171725201</v>
+        <v>687679.329867782</v>
       </c>
       <c r="AE2" t="n">
-        <v>781652.3013084074</v>
+        <v>940913.197395966</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.997489903354284e-07</v>
+        <v>1.922554382714441e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>24</v>
+        <v>23.81944444444444</v>
       </c>
       <c r="AH2" t="n">
-        <v>707052.5027274272</v>
+        <v>851113.762416461</v>
       </c>
     </row>
     <row r="3">
@@ -38534,28 +38534,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>488.8937357409729</v>
+        <v>587.5287848523925</v>
       </c>
       <c r="AB3" t="n">
-        <v>668.9259777101946</v>
+        <v>803.8828033756942</v>
       </c>
       <c r="AC3" t="n">
-        <v>605.0846212410393</v>
+        <v>727.161356878118</v>
       </c>
       <c r="AD3" t="n">
-        <v>488893.7357409729</v>
+        <v>587528.7848523925</v>
       </c>
       <c r="AE3" t="n">
-        <v>668925.9777101947</v>
+        <v>803882.8033756942</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.094128586377794e-06</v>
+        <v>2.104049845839829e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>22</v>
+        <v>21.76215277777778</v>
       </c>
       <c r="AH3" t="n">
-        <v>605084.6212410392</v>
+        <v>727161.356878118</v>
       </c>
     </row>
     <row r="4">
@@ -38640,28 +38640,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>464.029490406041</v>
+        <v>562.4939473168685</v>
       </c>
       <c r="AB4" t="n">
-        <v>634.9056203098544</v>
+        <v>769.629034200507</v>
       </c>
       <c r="AC4" t="n">
-        <v>574.3111190031159</v>
+        <v>696.1767193575437</v>
       </c>
       <c r="AD4" t="n">
-        <v>464029.490406041</v>
+        <v>562493.9473168685</v>
       </c>
       <c r="AE4" t="n">
-        <v>634905.6203098544</v>
+        <v>769629.034200507</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.121446830393544e-06</v>
+        <v>2.156583842141162e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>22</v>
+        <v>21.23263888888889</v>
       </c>
       <c r="AH4" t="n">
-        <v>574311.1190031159</v>
+        <v>696176.7193575436</v>
       </c>
     </row>
     <row r="5">
@@ -38746,28 +38746,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>463.8264152031632</v>
+        <v>562.2908721139908</v>
       </c>
       <c r="AB5" t="n">
-        <v>634.6277638582314</v>
+        <v>769.3511777488841</v>
       </c>
       <c r="AC5" t="n">
-        <v>574.0597807812618</v>
+        <v>695.9253811356896</v>
       </c>
       <c r="AD5" t="n">
-        <v>463826.4152031632</v>
+        <v>562290.8721139907</v>
       </c>
       <c r="AE5" t="n">
-        <v>634627.7638582315</v>
+        <v>769351.1777488841</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.122818228185499e-06</v>
+        <v>2.15922109095147e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>22</v>
+        <v>21.20659722222222</v>
       </c>
       <c r="AH5" t="n">
-        <v>574059.7807812617</v>
+        <v>695925.3811356896</v>
       </c>
     </row>
   </sheetData>
@@ -39043,28 +39043,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>385.4217784549022</v>
+        <v>486.0758977469906</v>
       </c>
       <c r="AB2" t="n">
-        <v>527.351080890809</v>
+        <v>665.0704874525894</v>
       </c>
       <c r="AC2" t="n">
-        <v>477.02143387248</v>
+        <v>601.5970935624053</v>
       </c>
       <c r="AD2" t="n">
-        <v>385421.7784549022</v>
+        <v>486075.8977469906</v>
       </c>
       <c r="AE2" t="n">
-        <v>527351.0808908091</v>
+        <v>665070.4874525894</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.165973186920501e-06</v>
+        <v>2.40493550406938e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>22</v>
+        <v>21.91840277777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>477021.43387248</v>
+        <v>601597.0935624053</v>
       </c>
     </row>
     <row r="3">
@@ -39149,28 +39149,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>385.4806626656412</v>
+        <v>486.1347819577296</v>
       </c>
       <c r="AB3" t="n">
-        <v>527.4316488657303</v>
+        <v>665.1510554275106</v>
       </c>
       <c r="AC3" t="n">
-        <v>477.0943125529526</v>
+        <v>601.6699722428779</v>
       </c>
       <c r="AD3" t="n">
-        <v>385480.6626656412</v>
+        <v>486134.7819577296</v>
       </c>
       <c r="AE3" t="n">
-        <v>527431.6488657303</v>
+        <v>665151.0554275106</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.170771672780779e-06</v>
+        <v>2.414832857748358e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>22</v>
+        <v>21.82291666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>477094.3125529526</v>
+        <v>601669.9722428778</v>
       </c>
     </row>
   </sheetData>
@@ -39446,28 +39446,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1038.295821760084</v>
+        <v>1186.778619112303</v>
       </c>
       <c r="AB2" t="n">
-        <v>1420.642149710952</v>
+        <v>1623.802863646958</v>
       </c>
       <c r="AC2" t="n">
-        <v>1285.058056826318</v>
+        <v>1468.829397362125</v>
       </c>
       <c r="AD2" t="n">
-        <v>1038295.821760084</v>
+        <v>1186778.619112303</v>
       </c>
       <c r="AE2" t="n">
-        <v>1420642.149710952</v>
+        <v>1623802.863646958</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.270775808349614e-07</v>
+        <v>1.277446627933682e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>30</v>
+        <v>29.39236111111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>1285058.056826318</v>
+        <v>1468829.397362125</v>
       </c>
     </row>
     <row r="3">
@@ -39552,28 +39552,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>801.5501676216268</v>
+        <v>930.1271721788989</v>
       </c>
       <c r="AB3" t="n">
-        <v>1096.716301237588</v>
+        <v>1272.64103128995</v>
       </c>
       <c r="AC3" t="n">
-        <v>992.0472366984684</v>
+        <v>1151.181957426542</v>
       </c>
       <c r="AD3" t="n">
-        <v>801550.1676216268</v>
+        <v>930127.1721788989</v>
       </c>
       <c r="AE3" t="n">
-        <v>1096716.301237588</v>
+        <v>1272641.03128995</v>
       </c>
       <c r="AF3" t="n">
-        <v>8.726752787680519e-07</v>
+        <v>1.533256039696787e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>25</v>
+        <v>24.48784722222222</v>
       </c>
       <c r="AH3" t="n">
-        <v>992047.2366984684</v>
+        <v>1151181.957426542</v>
       </c>
     </row>
     <row r="4">
@@ -39658,28 +39658,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>735.9309860813827</v>
+        <v>844.943561261995</v>
       </c>
       <c r="AB4" t="n">
-        <v>1006.93324214025</v>
+        <v>1156.089056797757</v>
       </c>
       <c r="AC4" t="n">
-        <v>910.8329467500648</v>
+        <v>1045.753539798161</v>
       </c>
       <c r="AD4" t="n">
-        <v>735930.9860813827</v>
+        <v>844943.561261995</v>
       </c>
       <c r="AE4" t="n">
-        <v>1006933.24214025</v>
+        <v>1156089.056797757</v>
       </c>
       <c r="AF4" t="n">
-        <v>9.275760001733262e-07</v>
+        <v>1.629714441494509e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>24</v>
+        <v>23.03819444444444</v>
       </c>
       <c r="AH4" t="n">
-        <v>910832.9467500648</v>
+        <v>1045753.539798161</v>
       </c>
     </row>
     <row r="5">
@@ -39764,28 +39764,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>697.8858620966267</v>
+        <v>806.8130964226676</v>
       </c>
       <c r="AB5" t="n">
-        <v>954.8782250718943</v>
+        <v>1103.917272607204</v>
       </c>
       <c r="AC5" t="n">
-        <v>863.7459874510381</v>
+        <v>998.5609574671948</v>
       </c>
       <c r="AD5" t="n">
-        <v>697885.8620966268</v>
+        <v>806813.0964226676</v>
       </c>
       <c r="AE5" t="n">
-        <v>954878.2250718944</v>
+        <v>1103917.272607204</v>
       </c>
       <c r="AF5" t="n">
-        <v>9.557649356033886e-07</v>
+        <v>1.679241289054326e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>23</v>
+        <v>22.36111111111111</v>
       </c>
       <c r="AH5" t="n">
-        <v>863745.9874510381</v>
+        <v>998560.9574671949</v>
       </c>
     </row>
     <row r="6">
@@ -39870,28 +39870,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>667.755800784897</v>
+        <v>786.5078307180025</v>
       </c>
       <c r="AB6" t="n">
-        <v>913.6529459406941</v>
+        <v>1076.134712264982</v>
       </c>
       <c r="AC6" t="n">
-        <v>826.4551911000771</v>
+        <v>973.4299256909658</v>
       </c>
       <c r="AD6" t="n">
-        <v>667755.8007848971</v>
+        <v>786507.8307180025</v>
       </c>
       <c r="AE6" t="n">
-        <v>913652.9459406941</v>
+        <v>1076134.712264982</v>
       </c>
       <c r="AF6" t="n">
-        <v>9.739584930556297e-07</v>
+        <v>1.711206651802539e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>22</v>
+        <v>21.94444444444444</v>
       </c>
       <c r="AH6" t="n">
-        <v>826455.191100077</v>
+        <v>973429.9256909657</v>
       </c>
     </row>
     <row r="7">
@@ -39976,28 +39976,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>652.3379379066663</v>
+        <v>761.3504235787275</v>
       </c>
       <c r="AB7" t="n">
-        <v>892.5575457625937</v>
+        <v>1041.713237950553</v>
       </c>
       <c r="AC7" t="n">
-        <v>807.3731063073944</v>
+        <v>942.2935885742635</v>
       </c>
       <c r="AD7" t="n">
-        <v>652337.9379066663</v>
+        <v>761350.4235787275</v>
       </c>
       <c r="AE7" t="n">
-        <v>892557.5457625937</v>
+        <v>1041713.237950553</v>
       </c>
       <c r="AF7" t="n">
-        <v>9.859972611126608e-07</v>
+        <v>1.732358292376121e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>22</v>
+        <v>21.67534722222222</v>
       </c>
       <c r="AH7" t="n">
-        <v>807373.1063073945</v>
+        <v>942293.5885742635</v>
       </c>
     </row>
     <row r="8">
@@ -40082,28 +40082,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>639.7378767929711</v>
+        <v>748.7503624650325</v>
       </c>
       <c r="AB8" t="n">
-        <v>875.3175862713715</v>
+        <v>1024.473278459331</v>
       </c>
       <c r="AC8" t="n">
-        <v>791.7785043535793</v>
+        <v>926.6989866204483</v>
       </c>
       <c r="AD8" t="n">
-        <v>639737.876792971</v>
+        <v>748750.3624650325</v>
       </c>
       <c r="AE8" t="n">
-        <v>875317.5862713715</v>
+        <v>1024473.278459331</v>
       </c>
       <c r="AF8" t="n">
-        <v>9.935553424899788e-07</v>
+        <v>1.745637543206569e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>22</v>
+        <v>21.51041666666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>791778.5043535793</v>
+        <v>926698.9866204483</v>
       </c>
     </row>
     <row r="9">
@@ -40188,28 +40188,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>627.2605021255338</v>
+        <v>736.1023955970027</v>
       </c>
       <c r="AB9" t="n">
-        <v>858.2454917884629</v>
+        <v>1007.167772201575</v>
       </c>
       <c r="AC9" t="n">
-        <v>776.3357466072845</v>
+        <v>911.0450935915025</v>
       </c>
       <c r="AD9" t="n">
-        <v>627260.5021255338</v>
+        <v>736102.3955970027</v>
       </c>
       <c r="AE9" t="n">
-        <v>858245.491788463</v>
+        <v>1007167.772201575</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.002172047643273e-06</v>
+        <v>1.760776754251055e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>22</v>
+        <v>21.328125</v>
       </c>
       <c r="AH9" t="n">
-        <v>776335.7466072845</v>
+        <v>911045.0935915024</v>
       </c>
     </row>
     <row r="10">
@@ -40294,28 +40294,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>611.4552112357567</v>
+        <v>720.2971047072257</v>
       </c>
       <c r="AB10" t="n">
-        <v>836.6199955128476</v>
+        <v>985.5422759259598</v>
       </c>
       <c r="AC10" t="n">
-        <v>756.7741573446391</v>
+        <v>891.4835043288571</v>
       </c>
       <c r="AD10" t="n">
-        <v>611455.2112357566</v>
+        <v>720297.1047072257</v>
       </c>
       <c r="AE10" t="n">
-        <v>836619.9955128476</v>
+        <v>985542.2759259598</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.007391309050411e-06</v>
+        <v>1.769946790655143e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>22</v>
+        <v>21.21527777777778</v>
       </c>
       <c r="AH10" t="n">
-        <v>756774.1573446391</v>
+        <v>891483.5043288571</v>
       </c>
     </row>
     <row r="11">
@@ -40400,28 +40400,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>604.8873224586488</v>
+        <v>713.729215930118</v>
       </c>
       <c r="AB11" t="n">
-        <v>827.6335203332058</v>
+        <v>976.5558007463179</v>
       </c>
       <c r="AC11" t="n">
-        <v>748.6453387435452</v>
+        <v>883.3546857277632</v>
       </c>
       <c r="AD11" t="n">
-        <v>604887.3224586488</v>
+        <v>713729.215930118</v>
       </c>
       <c r="AE11" t="n">
-        <v>827633.5203332057</v>
+        <v>976555.800746318</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.009459318287202e-06</v>
+        <v>1.773580201305819e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>22</v>
+        <v>21.171875</v>
       </c>
       <c r="AH11" t="n">
-        <v>748645.3387435451</v>
+        <v>883354.6857277632</v>
       </c>
     </row>
     <row r="12">
@@ -40506,28 +40506,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>603.2954060254217</v>
+        <v>712.1372994968907</v>
       </c>
       <c r="AB12" t="n">
-        <v>825.4553900388678</v>
+        <v>974.3776704519801</v>
       </c>
       <c r="AC12" t="n">
-        <v>746.6750861474737</v>
+        <v>881.3844331316918</v>
       </c>
       <c r="AD12" t="n">
-        <v>603295.4060254217</v>
+        <v>712137.2994968907</v>
       </c>
       <c r="AE12" t="n">
-        <v>825455.3900388678</v>
+        <v>974377.6704519801</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.011059563529956e-06</v>
+        <v>1.776391769071224e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>22</v>
+        <v>21.13715277777778</v>
       </c>
       <c r="AH12" t="n">
-        <v>746675.0861474738</v>
+        <v>881384.4331316918</v>
       </c>
     </row>
     <row r="13">
@@ -40612,28 +40612,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>604.9867691954181</v>
+        <v>713.8286626668872</v>
       </c>
       <c r="AB13" t="n">
-        <v>827.7695877457338</v>
+        <v>976.691868158846</v>
       </c>
       <c r="AC13" t="n">
-        <v>748.7684200731933</v>
+        <v>883.4777670574114</v>
       </c>
       <c r="AD13" t="n">
-        <v>604986.7691954181</v>
+        <v>713828.6626668873</v>
       </c>
       <c r="AE13" t="n">
-        <v>827769.5877457338</v>
+        <v>976691.8681588459</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.010862610269309e-06</v>
+        <v>1.776045729961636e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>22</v>
+        <v>21.13715277777778</v>
       </c>
       <c r="AH13" t="n">
-        <v>748768.4200731933</v>
+        <v>883477.7670574114</v>
       </c>
     </row>
   </sheetData>
@@ -40909,28 +40909,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1313.931502941731</v>
+        <v>1488.230577218224</v>
       </c>
       <c r="AB2" t="n">
-        <v>1797.779048891712</v>
+        <v>2036.262731849266</v>
       </c>
       <c r="AC2" t="n">
-        <v>1626.201539664228</v>
+        <v>1841.924674634265</v>
       </c>
       <c r="AD2" t="n">
-        <v>1313931.502941731</v>
+        <v>1488230.577218224</v>
       </c>
       <c r="AE2" t="n">
-        <v>1797779.048891712</v>
+        <v>2036262.731849266</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.283486639471358e-07</v>
+        <v>1.074406190669269e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>33</v>
+        <v>32.77777777777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>1626201.539664228</v>
+        <v>1841924.674634265</v>
       </c>
     </row>
     <row r="3">
@@ -41015,28 +41015,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>949.7570926185741</v>
+        <v>1093.197105723249</v>
       </c>
       <c r="AB3" t="n">
-        <v>1299.499554446483</v>
+        <v>1495.76050850306</v>
       </c>
       <c r="AC3" t="n">
-        <v>1175.47714082919</v>
+        <v>1353.007224884586</v>
       </c>
       <c r="AD3" t="n">
-        <v>949757.0926185742</v>
+        <v>1093197.105723249</v>
       </c>
       <c r="AE3" t="n">
-        <v>1299499.554446483</v>
+        <v>1495760.50850306</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.929206899911319e-07</v>
+        <v>1.355806014903684e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>26</v>
+        <v>25.97222222222222</v>
       </c>
       <c r="AH3" t="n">
-        <v>1175477.14082919</v>
+        <v>1353007.224884586</v>
       </c>
     </row>
     <row r="4">
@@ -41121,28 +41121,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>863.4773224993331</v>
+        <v>986.4869524222992</v>
       </c>
       <c r="AB4" t="n">
-        <v>1181.447766574522</v>
+        <v>1349.754969036992</v>
       </c>
       <c r="AC4" t="n">
-        <v>1068.692049905004</v>
+        <v>1220.936249185098</v>
       </c>
       <c r="AD4" t="n">
-        <v>863477.3224993332</v>
+        <v>986486.9524222992</v>
       </c>
       <c r="AE4" t="n">
-        <v>1181447.766574522</v>
+        <v>1349754.969036992</v>
       </c>
       <c r="AF4" t="n">
-        <v>8.551719508156158e-07</v>
+        <v>1.462248733483921e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>25</v>
+        <v>24.07986111111111</v>
       </c>
       <c r="AH4" t="n">
-        <v>1068692.049905004</v>
+        <v>1220936.249185098</v>
       </c>
     </row>
     <row r="5">
@@ -41227,28 +41227,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>814.0598342456881</v>
+        <v>936.9841233140825</v>
       </c>
       <c r="AB5" t="n">
-        <v>1113.83257900017</v>
+        <v>1282.023014340442</v>
       </c>
       <c r="AC5" t="n">
-        <v>1007.529960934236</v>
+        <v>1159.668537182391</v>
       </c>
       <c r="AD5" t="n">
-        <v>814059.834245688</v>
+        <v>936984.1233140825</v>
       </c>
       <c r="AE5" t="n">
-        <v>1113832.57900017</v>
+        <v>1282023.014340442</v>
       </c>
       <c r="AF5" t="n">
-        <v>8.895951899376917e-07</v>
+        <v>1.521108636174441e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>24</v>
+        <v>23.15104166666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>1007529.960934236</v>
+        <v>1159668.537182391</v>
       </c>
     </row>
     <row r="6">
@@ -41333,28 +41333,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>779.8806637142251</v>
+        <v>902.8902041286402</v>
       </c>
       <c r="AB6" t="n">
-        <v>1067.067130000439</v>
+        <v>1235.374209993361</v>
       </c>
       <c r="AC6" t="n">
-        <v>965.2277407513197</v>
+        <v>1117.471829250188</v>
       </c>
       <c r="AD6" t="n">
-        <v>779880.6637142251</v>
+        <v>902890.2041286402</v>
       </c>
       <c r="AE6" t="n">
-        <v>1067067.130000439</v>
+        <v>1235374.209993361</v>
       </c>
       <c r="AF6" t="n">
-        <v>9.10282346736072e-07</v>
+        <v>1.556481368873361e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>23</v>
+        <v>22.62152777777778</v>
       </c>
       <c r="AH6" t="n">
-        <v>965227.7407513198</v>
+        <v>1117471.829250188</v>
       </c>
     </row>
     <row r="7">
@@ -41439,28 +41439,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>762.2943083674456</v>
+        <v>875.0460315179962</v>
       </c>
       <c r="AB7" t="n">
-        <v>1043.004702759735</v>
+        <v>1197.276584629278</v>
       </c>
       <c r="AC7" t="n">
-        <v>943.4617977946396</v>
+        <v>1083.0101877805</v>
       </c>
       <c r="AD7" t="n">
-        <v>762294.3083674456</v>
+        <v>875046.0315179962</v>
       </c>
       <c r="AE7" t="n">
-        <v>1043004.702759735</v>
+        <v>1197276.584629278</v>
       </c>
       <c r="AF7" t="n">
-        <v>9.242793909001137e-07</v>
+        <v>1.580414754529741e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>23</v>
+        <v>22.28298611111111</v>
       </c>
       <c r="AH7" t="n">
-        <v>943461.7977946396</v>
+        <v>1083010.1877805</v>
       </c>
     </row>
     <row r="8">
@@ -41545,28 +41545,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>748.6127650177182</v>
+        <v>861.3644881682687</v>
       </c>
       <c r="AB8" t="n">
-        <v>1024.285011561544</v>
+        <v>1178.556893431087</v>
       </c>
       <c r="AC8" t="n">
-        <v>926.5286876511525</v>
+        <v>1066.077077637013</v>
       </c>
       <c r="AD8" t="n">
-        <v>748612.7650177182</v>
+        <v>861364.4881682687</v>
       </c>
       <c r="AE8" t="n">
-        <v>1024285.011561544</v>
+        <v>1178556.893431087</v>
       </c>
       <c r="AF8" t="n">
-        <v>9.352160643910005e-07</v>
+        <v>1.599115247390065e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>23</v>
+        <v>22.02256944444444</v>
       </c>
       <c r="AH8" t="n">
-        <v>926528.6876511525</v>
+        <v>1066077.077637013</v>
       </c>
     </row>
     <row r="9">
@@ -41651,28 +41651,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>728.0092835461355</v>
+        <v>850.9334831059791</v>
       </c>
       <c r="AB9" t="n">
-        <v>996.0944192506739</v>
+        <v>1164.284732121398</v>
       </c>
       <c r="AC9" t="n">
-        <v>901.0285659046867</v>
+        <v>1053.167031371615</v>
       </c>
       <c r="AD9" t="n">
-        <v>728009.2835461355</v>
+        <v>850933.4831059792</v>
       </c>
       <c r="AE9" t="n">
-        <v>996094.419250674</v>
+        <v>1164284.732121398</v>
       </c>
       <c r="AF9" t="n">
-        <v>9.418587294180034e-07</v>
+        <v>1.610473464311736e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>22</v>
+        <v>21.86631944444444</v>
       </c>
       <c r="AH9" t="n">
-        <v>901028.5659046867</v>
+        <v>1053167.031371615</v>
       </c>
     </row>
     <row r="10">
@@ -41757,28 +41757,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>718.6463922705511</v>
+        <v>831.4833667671224</v>
       </c>
       <c r="AB10" t="n">
-        <v>983.2836983458087</v>
+        <v>1137.672224868001</v>
       </c>
       <c r="AC10" t="n">
-        <v>889.4404822230223</v>
+        <v>1029.094384459595</v>
       </c>
       <c r="AD10" t="n">
-        <v>718646.3922705512</v>
+        <v>831483.3667671224</v>
       </c>
       <c r="AE10" t="n">
-        <v>983283.6983458087</v>
+        <v>1137672.224868001</v>
       </c>
       <c r="AF10" t="n">
-        <v>9.479320231569774e-07</v>
+        <v>1.620858119782979e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>22</v>
+        <v>21.72743055555556</v>
       </c>
       <c r="AH10" t="n">
-        <v>889440.4822230223</v>
+        <v>1029094.384459595</v>
       </c>
     </row>
     <row r="11">
@@ -41863,28 +41863,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>707.6149245527545</v>
+        <v>820.4518990493256</v>
       </c>
       <c r="AB11" t="n">
-        <v>968.1899575403111</v>
+        <v>1122.578484062504</v>
       </c>
       <c r="AC11" t="n">
-        <v>875.7872668558031</v>
+        <v>1015.441169092376</v>
       </c>
       <c r="AD11" t="n">
-        <v>707614.9245527545</v>
+        <v>820451.8990493256</v>
       </c>
       <c r="AE11" t="n">
-        <v>968189.957540311</v>
+        <v>1122578.484062504</v>
       </c>
       <c r="AF11" t="n">
-        <v>9.545746881839804e-07</v>
+        <v>1.632216336704651e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>22</v>
+        <v>21.57118055555556</v>
       </c>
       <c r="AH11" t="n">
-        <v>875787.2668558031</v>
+        <v>1015441.169092376</v>
       </c>
     </row>
     <row r="12">
@@ -41969,28 +41969,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>695.9235306229933</v>
+        <v>808.5899129189723</v>
       </c>
       <c r="AB12" t="n">
-        <v>952.1932765777145</v>
+        <v>1106.34839132506</v>
       </c>
       <c r="AC12" t="n">
-        <v>861.3172866727938</v>
+        <v>1000.760053626715</v>
       </c>
       <c r="AD12" t="n">
-        <v>695923.5306229934</v>
+        <v>808589.9129189723</v>
       </c>
       <c r="AE12" t="n">
-        <v>952193.2765777145</v>
+        <v>1106348.39132506</v>
       </c>
       <c r="AF12" t="n">
-        <v>9.588686966478644e-07</v>
+        <v>1.639558612643303e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>22</v>
+        <v>21.47569444444444</v>
       </c>
       <c r="AH12" t="n">
-        <v>861317.2866727938</v>
+        <v>1000760.053626715</v>
       </c>
     </row>
     <row r="13">
@@ -42075,28 +42075,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>691.2692373434899</v>
+        <v>803.9356196394688</v>
       </c>
       <c r="AB13" t="n">
-        <v>945.8250671797697</v>
+        <v>1099.980181927115</v>
       </c>
       <c r="AC13" t="n">
-        <v>855.556850241951</v>
+        <v>994.9996171958724</v>
       </c>
       <c r="AD13" t="n">
-        <v>691269.2373434899</v>
+        <v>803935.6196394687</v>
       </c>
       <c r="AE13" t="n">
-        <v>945825.0671797697</v>
+        <v>1099980.181927115</v>
       </c>
       <c r="AF13" t="n">
-        <v>9.607428771376259e-07</v>
+        <v>1.642763252417631e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>22</v>
+        <v>21.43229166666667</v>
       </c>
       <c r="AH13" t="n">
-        <v>855556.8502419509</v>
+        <v>994999.6171958724</v>
       </c>
     </row>
     <row r="14">
@@ -42181,28 +42181,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>679.9744242300125</v>
+        <v>792.6408065259913</v>
       </c>
       <c r="AB14" t="n">
-        <v>930.3710055859232</v>
+        <v>1084.526120333269</v>
       </c>
       <c r="AC14" t="n">
-        <v>841.5777025967096</v>
+        <v>981.0204695506308</v>
       </c>
       <c r="AD14" t="n">
-        <v>679974.4242300125</v>
+        <v>792640.8065259913</v>
       </c>
       <c r="AE14" t="n">
-        <v>930371.0055859232</v>
+        <v>1084526.120333269</v>
       </c>
       <c r="AF14" t="n">
-        <v>9.660332853555604e-07</v>
+        <v>1.651809260894534e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>22</v>
+        <v>21.31944444444444</v>
       </c>
       <c r="AH14" t="n">
-        <v>841577.7025967096</v>
+        <v>981020.4695506308</v>
       </c>
     </row>
     <row r="15">
@@ -42287,28 +42287,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>672.6163783014931</v>
+        <v>785.2827605974722</v>
       </c>
       <c r="AB15" t="n">
-        <v>920.3034025324469</v>
+        <v>1074.458517279793</v>
       </c>
       <c r="AC15" t="n">
-        <v>832.4709374486872</v>
+        <v>971.9137044026088</v>
       </c>
       <c r="AD15" t="n">
-        <v>672616.3783014931</v>
+        <v>785282.7605974722</v>
       </c>
       <c r="AE15" t="n">
-        <v>920303.4025324469</v>
+        <v>1074458.517279793</v>
       </c>
       <c r="AF15" t="n">
-        <v>9.672431993426214e-07</v>
+        <v>1.653878078976696e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>22</v>
+        <v>21.29340277777778</v>
       </c>
       <c r="AH15" t="n">
-        <v>832470.9374486872</v>
+        <v>971913.7044026088</v>
       </c>
     </row>
     <row r="16">
@@ -42393,28 +42393,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>666.3991857181649</v>
+        <v>779.065568014144</v>
       </c>
       <c r="AB16" t="n">
-        <v>911.7967653567583</v>
+        <v>1065.951880104104</v>
       </c>
       <c r="AC16" t="n">
-        <v>824.7761617859062</v>
+        <v>964.2189287398278</v>
       </c>
       <c r="AD16" t="n">
-        <v>666399.1857181649</v>
+        <v>779065.568014144</v>
       </c>
       <c r="AE16" t="n">
-        <v>911796.7653567584</v>
+        <v>1065951.880104104</v>
       </c>
       <c r="AF16" t="n">
-        <v>9.699714367644262e-07</v>
+        <v>1.658543060926668e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>22</v>
+        <v>21.23263888888889</v>
       </c>
       <c r="AH16" t="n">
-        <v>824776.1617859062</v>
+        <v>964218.9287398278</v>
       </c>
     </row>
     <row r="17">
@@ -42499,28 +42499,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>665.4540371601495</v>
+        <v>778.1204194561284</v>
       </c>
       <c r="AB17" t="n">
-        <v>910.50357140267</v>
+        <v>1064.658686150016</v>
       </c>
       <c r="AC17" t="n">
-        <v>823.6063884477871</v>
+        <v>963.0491554017083</v>
       </c>
       <c r="AD17" t="n">
-        <v>665454.0371601494</v>
+        <v>778120.4194561284</v>
       </c>
       <c r="AE17" t="n">
-        <v>910503.57140267</v>
+        <v>1064658.686150016</v>
       </c>
       <c r="AF17" t="n">
-        <v>9.700900557827657e-07</v>
+        <v>1.658745886228841e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>22</v>
+        <v>21.23263888888889</v>
       </c>
       <c r="AH17" t="n">
-        <v>823606.3884477871</v>
+        <v>963049.1554017083</v>
       </c>
     </row>
     <row r="18">
@@ -42605,28 +42605,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>667.4218481062943</v>
+        <v>780.0882304022733</v>
       </c>
       <c r="AB18" t="n">
-        <v>913.1960171528774</v>
+        <v>1067.351131900223</v>
       </c>
       <c r="AC18" t="n">
-        <v>826.0418709544658</v>
+        <v>965.4846379083872</v>
       </c>
       <c r="AD18" t="n">
-        <v>667421.8481062943</v>
+        <v>780088.2304022734</v>
       </c>
       <c r="AE18" t="n">
-        <v>913196.0171528774</v>
+        <v>1067351.131900223</v>
       </c>
       <c r="AF18" t="n">
-        <v>9.69829093942419e-07</v>
+        <v>1.658299670564061e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>22</v>
+        <v>21.23263888888889</v>
       </c>
       <c r="AH18" t="n">
-        <v>826041.8709544658</v>
+        <v>965484.6379083872</v>
       </c>
     </row>
   </sheetData>
@@ -42902,28 +42902,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>352.5846511429156</v>
+        <v>450.1544518893111</v>
       </c>
       <c r="AB2" t="n">
-        <v>482.4218746307344</v>
+        <v>615.9211804877666</v>
       </c>
       <c r="AC2" t="n">
-        <v>436.3802079993298</v>
+        <v>557.1385274728195</v>
       </c>
       <c r="AD2" t="n">
-        <v>352584.6511429156</v>
+        <v>450154.4518893111</v>
       </c>
       <c r="AE2" t="n">
-        <v>482421.8746307343</v>
+        <v>615921.1804877666</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.168988848304417e-06</v>
+        <v>2.5056815270294e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>23</v>
+        <v>22.63888888888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>436380.2079993298</v>
+        <v>557138.5274728196</v>
       </c>
     </row>
   </sheetData>
@@ -43199,28 +43199,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>738.2426273689371</v>
+        <v>869.3673613109053</v>
       </c>
       <c r="AB2" t="n">
-        <v>1010.096131732298</v>
+        <v>1189.506777526688</v>
       </c>
       <c r="AC2" t="n">
-        <v>913.6939745985911</v>
+        <v>1075.981920162788</v>
       </c>
       <c r="AD2" t="n">
-        <v>738242.627368937</v>
+        <v>869367.3613109053</v>
       </c>
       <c r="AE2" t="n">
-        <v>1010096.131732298</v>
+        <v>1189506.777526688</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.798590242321401e-07</v>
+        <v>1.621080892550177e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>26</v>
+        <v>25.78125</v>
       </c>
       <c r="AH2" t="n">
-        <v>913693.9745985911</v>
+        <v>1075981.920162788</v>
       </c>
     </row>
     <row r="3">
@@ -43305,28 +43305,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>611.1899229524095</v>
+        <v>723.6435097987905</v>
       </c>
       <c r="AB3" t="n">
-        <v>836.2570163798789</v>
+        <v>990.120975005212</v>
       </c>
       <c r="AC3" t="n">
-        <v>756.4458204306765</v>
+        <v>895.6252187942301</v>
       </c>
       <c r="AD3" t="n">
-        <v>611189.9229524095</v>
+        <v>723643.5097987906</v>
       </c>
       <c r="AE3" t="n">
-        <v>836257.0163798789</v>
+        <v>990120.975005212</v>
       </c>
       <c r="AF3" t="n">
-        <v>9.964942338586367e-07</v>
+        <v>1.835973397504713e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>23</v>
+        <v>22.76041666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>756445.8204306765</v>
+        <v>895625.2187942301</v>
       </c>
     </row>
     <row r="4">
@@ -43411,28 +43411,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>566.4202622522458</v>
+        <v>678.7885082440554</v>
       </c>
       <c r="AB4" t="n">
-        <v>775.0011915118802</v>
+        <v>928.7483830150157</v>
       </c>
       <c r="AC4" t="n">
-        <v>701.0361655149895</v>
+        <v>840.1099408466043</v>
       </c>
       <c r="AD4" t="n">
-        <v>566420.2622522458</v>
+        <v>678788.5082440553</v>
       </c>
       <c r="AE4" t="n">
-        <v>775001.1915118801</v>
+        <v>928748.3830150157</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.038507992164955e-06</v>
+        <v>1.913380912730271e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>22</v>
+        <v>21.84027777777778</v>
       </c>
       <c r="AH4" t="n">
-        <v>701036.1655149895</v>
+        <v>840109.9408466043</v>
       </c>
     </row>
     <row r="5">
@@ -43517,28 +43517,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>542.6708857212369</v>
+        <v>645.6609772465181</v>
       </c>
       <c r="AB5" t="n">
-        <v>742.5062467936079</v>
+        <v>883.4218336206642</v>
       </c>
       <c r="AC5" t="n">
-        <v>671.6424927136877</v>
+        <v>799.109293710238</v>
       </c>
       <c r="AD5" t="n">
-        <v>542670.8857212369</v>
+        <v>645660.9772465181</v>
       </c>
       <c r="AE5" t="n">
-        <v>742506.2467936079</v>
+        <v>883421.8336206642</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.059750022950426e-06</v>
+        <v>1.952517921361104e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>22</v>
+        <v>21.40625</v>
       </c>
       <c r="AH5" t="n">
-        <v>671642.4927136877</v>
+        <v>799109.2937102381</v>
       </c>
     </row>
     <row r="6">
@@ -43623,28 +43623,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>523.8816167438072</v>
+        <v>617.6641460031522</v>
       </c>
       <c r="AB6" t="n">
-        <v>716.7979400546436</v>
+        <v>845.1153339804678</v>
       </c>
       <c r="AC6" t="n">
-        <v>648.3877506880551</v>
+        <v>764.458712632192</v>
       </c>
       <c r="AD6" t="n">
-        <v>523881.6167438072</v>
+        <v>617664.1460031521</v>
       </c>
       <c r="AE6" t="n">
-        <v>716797.9400546437</v>
+        <v>845115.3339804678</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.073754609052533e-06</v>
+        <v>1.978320426436291e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>22</v>
+        <v>21.11979166666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>648387.7506880551</v>
+        <v>764458.7126321921</v>
       </c>
     </row>
     <row r="7">
@@ -43729,28 +43729,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>520.4473050804033</v>
+        <v>614.2298343397482</v>
       </c>
       <c r="AB7" t="n">
-        <v>712.0989633256369</v>
+        <v>840.4163572514611</v>
       </c>
       <c r="AC7" t="n">
-        <v>644.1372377030095</v>
+        <v>760.2081996471466</v>
       </c>
       <c r="AD7" t="n">
-        <v>520447.3050804033</v>
+        <v>614229.8343397483</v>
       </c>
       <c r="AE7" t="n">
-        <v>712098.9633256369</v>
+        <v>840416.3572514611</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.076367404967104e-06</v>
+        <v>1.983134326636885e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>22</v>
+        <v>21.06770833333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>644137.2377030095</v>
+        <v>760208.1996471465</v>
       </c>
     </row>
     <row r="8">
@@ -43835,28 +43835,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>522.6863259234954</v>
+        <v>616.4688551828403</v>
       </c>
       <c r="AB8" t="n">
-        <v>715.1624904217837</v>
+        <v>843.4798843476079</v>
       </c>
       <c r="AC8" t="n">
-        <v>646.9083860727875</v>
+        <v>762.9793480169243</v>
       </c>
       <c r="AD8" t="n">
-        <v>522686.3259234954</v>
+        <v>616468.8551828404</v>
       </c>
       <c r="AE8" t="n">
-        <v>715162.4904217836</v>
+        <v>843479.884347608</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.076236765171376e-06</v>
+        <v>1.982893631626856e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>22</v>
+        <v>21.07638888888889</v>
       </c>
       <c r="AH8" t="n">
-        <v>646908.3860727875</v>
+        <v>762979.3480169243</v>
       </c>
     </row>
   </sheetData>
@@ -44132,28 +44132,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>910.9207145605435</v>
+        <v>1056.456496464936</v>
       </c>
       <c r="AB2" t="n">
-        <v>1246.361908647407</v>
+        <v>1445.490386034553</v>
       </c>
       <c r="AC2" t="n">
-        <v>1127.410877366024</v>
+        <v>1307.534812349913</v>
       </c>
       <c r="AD2" t="n">
-        <v>910920.7145605435</v>
+        <v>1056456.496464936</v>
       </c>
       <c r="AE2" t="n">
-        <v>1246361.908647407</v>
+        <v>1445490.386034552</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.824405374899004e-07</v>
+        <v>1.397772919060629e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>28</v>
+        <v>27.90798611111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>1127410.877366024</v>
+        <v>1307534.812349913</v>
       </c>
     </row>
     <row r="3">
@@ -44238,28 +44238,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>722.7746036779687</v>
+        <v>848.8828571005565</v>
       </c>
       <c r="AB3" t="n">
-        <v>988.9320993172711</v>
+        <v>1161.478975153544</v>
       </c>
       <c r="AC3" t="n">
-        <v>894.5498077333485</v>
+        <v>1050.629051910869</v>
       </c>
       <c r="AD3" t="n">
-        <v>722774.6036779687</v>
+        <v>848882.8571005565</v>
       </c>
       <c r="AE3" t="n">
-        <v>988932.099317271</v>
+        <v>1161478.975153544</v>
       </c>
       <c r="AF3" t="n">
-        <v>9.188343323159755e-07</v>
+        <v>1.641430479732785e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>24</v>
+        <v>23.76736111111111</v>
       </c>
       <c r="AH3" t="n">
-        <v>894549.8077333486</v>
+        <v>1050629.051910869</v>
       </c>
     </row>
     <row r="4">
@@ -44344,28 +44344,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>667.6911135257975</v>
+        <v>784.1709435620543</v>
       </c>
       <c r="AB4" t="n">
-        <v>913.5644379789934</v>
+        <v>1072.937280162028</v>
       </c>
       <c r="AC4" t="n">
-        <v>826.3751302140192</v>
+        <v>970.537652020294</v>
       </c>
       <c r="AD4" t="n">
-        <v>667691.1135257975</v>
+        <v>784170.9435620543</v>
       </c>
       <c r="AE4" t="n">
-        <v>913564.4379789934</v>
+        <v>1072937.280162028</v>
       </c>
       <c r="AF4" t="n">
-        <v>9.684412233888307e-07</v>
+        <v>1.730049570408826e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>23</v>
+        <v>22.55208333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>826375.1302140192</v>
+        <v>970537.652020294</v>
       </c>
     </row>
     <row r="5">
@@ -44450,28 +44450,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>632.0223641198012</v>
+        <v>748.4168533014864</v>
       </c>
       <c r="AB5" t="n">
-        <v>864.7608814475443</v>
+        <v>1024.016956508381</v>
       </c>
       <c r="AC5" t="n">
-        <v>782.2293166217098</v>
+        <v>926.2862153960455</v>
       </c>
       <c r="AD5" t="n">
-        <v>632022.3641198012</v>
+        <v>748416.8533014865</v>
       </c>
       <c r="AE5" t="n">
-        <v>864760.8814475443</v>
+        <v>1024016.956508381</v>
       </c>
       <c r="AF5" t="n">
-        <v>9.948043176303885e-07</v>
+        <v>1.77714531433808e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>22</v>
+        <v>21.953125</v>
       </c>
       <c r="AH5" t="n">
-        <v>782229.3166217098</v>
+        <v>926286.2153960455</v>
       </c>
     </row>
     <row r="6">
@@ -44556,28 +44556,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>614.3574696465381</v>
+        <v>721.2088762964644</v>
       </c>
       <c r="AB6" t="n">
-        <v>840.5909935090833</v>
+        <v>986.7898020388794</v>
       </c>
       <c r="AC6" t="n">
-        <v>760.3661688654448</v>
+        <v>892.6119683004737</v>
       </c>
       <c r="AD6" t="n">
-        <v>614357.4696465381</v>
+        <v>721208.8762964644</v>
       </c>
       <c r="AE6" t="n">
-        <v>840590.9935090833</v>
+        <v>986789.8020388795</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.009470046583469e-06</v>
+        <v>1.803344568833076e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>22</v>
+        <v>21.63194444444444</v>
       </c>
       <c r="AH6" t="n">
-        <v>760366.1688654448</v>
+        <v>892611.9683004736</v>
       </c>
     </row>
     <row r="7">
@@ -44662,28 +44662,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>598.5352057915088</v>
+        <v>705.2160202408426</v>
       </c>
       <c r="AB7" t="n">
-        <v>818.9422740736153</v>
+        <v>964.9076708285645</v>
       </c>
       <c r="AC7" t="n">
-        <v>740.7835728287291</v>
+        <v>872.8182369811071</v>
       </c>
       <c r="AD7" t="n">
-        <v>598535.2057915088</v>
+        <v>705216.0202408426</v>
       </c>
       <c r="AE7" t="n">
-        <v>818942.2740736153</v>
+        <v>964907.6708285646</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.02066429938642e-06</v>
+        <v>1.823342284528227e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>22</v>
+        <v>21.39756944444444</v>
       </c>
       <c r="AH7" t="n">
-        <v>740783.5728287292</v>
+        <v>872818.2369811072</v>
       </c>
     </row>
     <row r="8">
@@ -44768,28 +44768,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>584.4800548892933</v>
+        <v>691.1608693386272</v>
       </c>
       <c r="AB8" t="n">
-        <v>799.7113965397087</v>
+        <v>945.676793294658</v>
       </c>
       <c r="AC8" t="n">
-        <v>723.3880632559525</v>
+        <v>855.4227274083304</v>
       </c>
       <c r="AD8" t="n">
-        <v>584480.0548892934</v>
+        <v>691160.8693386272</v>
       </c>
       <c r="AE8" t="n">
-        <v>799711.3965397087</v>
+        <v>945676.793294658</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.028538009784901e-06</v>
+        <v>1.837408093545266e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>22</v>
+        <v>21.23263888888889</v>
       </c>
       <c r="AH8" t="n">
-        <v>723388.0632559524</v>
+        <v>855422.7274083304</v>
       </c>
     </row>
     <row r="9">
@@ -44874,28 +44874,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>574.8650203217915</v>
+        <v>672.0027522393663</v>
       </c>
       <c r="AB9" t="n">
-        <v>786.555682059065</v>
+        <v>919.4638122829737</v>
       </c>
       <c r="AC9" t="n">
-        <v>711.4879117011802</v>
+        <v>831.7114765142512</v>
       </c>
       <c r="AD9" t="n">
-        <v>574865.0203217914</v>
+        <v>672002.7522393663</v>
       </c>
       <c r="AE9" t="n">
-        <v>786555.682059065</v>
+        <v>919463.8122829737</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.033820690882923e-06</v>
+        <v>1.846845217805899e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>22</v>
+        <v>21.11979166666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>711487.9117011803</v>
+        <v>831711.4765142512</v>
       </c>
     </row>
     <row r="10">
@@ -44980,28 +44980,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>570.3294482489079</v>
+        <v>667.4671801664825</v>
       </c>
       <c r="AB10" t="n">
-        <v>780.3499122536277</v>
+        <v>913.2580424775363</v>
       </c>
       <c r="AC10" t="n">
-        <v>705.8744118561211</v>
+        <v>826.0979766691923</v>
       </c>
       <c r="AD10" t="n">
-        <v>570329.4482489078</v>
+        <v>667467.1801664826</v>
       </c>
       <c r="AE10" t="n">
-        <v>780349.9122536278</v>
+        <v>913258.0424775362</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.035657051455092e-06</v>
+        <v>1.850125741953643e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>22</v>
+        <v>21.08506944444444</v>
       </c>
       <c r="AH10" t="n">
-        <v>705874.4118561212</v>
+        <v>826097.9766691923</v>
       </c>
     </row>
     <row r="11">
@@ -45086,28 +45086,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>572.3030094737015</v>
+        <v>669.4407413912764</v>
       </c>
       <c r="AB11" t="n">
-        <v>783.050225788767</v>
+        <v>915.9583560126755</v>
       </c>
       <c r="AC11" t="n">
-        <v>708.3170112573807</v>
+        <v>828.5405760704517</v>
       </c>
       <c r="AD11" t="n">
-        <v>572303.0094737016</v>
+        <v>669440.7413912765</v>
       </c>
       <c r="AE11" t="n">
-        <v>783050.225788767</v>
+        <v>915958.3560126754</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.03560674020654e-06</v>
+        <v>1.850035864579732e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>22</v>
+        <v>21.08506944444444</v>
       </c>
       <c r="AH11" t="n">
-        <v>708317.0112573807</v>
+        <v>828540.5760704518</v>
       </c>
     </row>
   </sheetData>
